--- a/spec/acceptance/fixtures/RosterExample.xlsx
+++ b/spec/acceptance/fixtures/RosterExample.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="36020" yWindow="3860" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="재등록단원" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="신입단원" state="visible" r:id="rId4"/>
+    <sheet name="재등록단원" sheetId="1" r:id="rId1"/>
+    <sheet name="신입단원" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="945">
   <si>
     <t>기수</t>
   </si>
@@ -2826,88 +2834,120 @@
   </si>
   <si>
     <t>예비단원</t>
+  </si>
+  <si>
+    <t>9기</t>
+  </si>
+  <si>
+    <t>2014-10001</t>
+  </si>
+  <si>
+    <t>010-5678-1236</t>
+  </si>
+  <si>
+    <t>limcrystal@gmail.com</t>
+  </si>
+  <si>
+    <t>whatthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                공과대학 컴퓨터공학부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       임수정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font/>
-    <font/>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="돋움"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="돋움"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="돋움"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2915,7 +2955,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2945,6 +2985,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2959,12 +3000,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2979,6 +3022,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2991,6 +3035,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3005,6 +3050,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3019,6 +3065,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3033,6 +3080,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3047,6 +3095,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3061,6 +3110,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3075,5351 +3125,5715 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="3">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="5">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="6">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="7">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="8">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="9">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="10">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="11">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="12">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="13">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="14">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="15">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="16"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="17">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="18">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="19">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="6.14"/>
-    <col min="2" customWidth="1" max="2" width="37.0"/>
-    <col min="3" customWidth="1" max="3" width="11.43"/>
-    <col min="4" customWidth="1" max="4" width="5.43"/>
-    <col min="5" customWidth="1" max="5" width="7.29"/>
-    <col min="6" customWidth="1" max="6" width="9.14"/>
-    <col min="7" customWidth="1" max="7" width="14.29"/>
-    <col min="8" customWidth="1" max="8" width="14.43"/>
-    <col min="9" customWidth="1" max="9" width="17.71"/>
-    <col min="10" customWidth="1" max="10" width="25.29"/>
-    <col min="11" customWidth="1" max="11" width="14.43"/>
-    <col min="12" customWidth="1" max="12" width="9.14"/>
-    <col min="13" customWidth="1" max="13" width="14.43"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="13.5">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="2" r="F1">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c s="3" r="M1"/>
-    </row>
-    <row customHeight="1" r="2" ht="13.5">
-      <c t="s" s="4" r="A2">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="4" r="B2">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="4" r="C2">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="4" r="D2">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="4" r="E2">
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
-      <c s="4" r="F2">
-        <v>901010.0</v>
-      </c>
-      <c t="s" s="4" r="G2">
+      <c r="F2" s="19">
+        <v>901010</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="4" r="H2">
+      <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="4" r="I2">
+      <c r="I2" s="19" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="4" r="J2">
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="4" r="K2">
+      <c r="K2" s="19" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="4" r="L2">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c s="5" r="M2"/>
-    </row>
-    <row customHeight="1" r="3" ht="13.5">
-      <c t="s" s="4" r="A3">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="4" r="B3">
+      <c r="B3" s="19" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="4" r="C3">
+      <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="4" r="D3">
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="4" r="E3">
+      <c r="E3" s="19" t="s">
         <v>27</v>
       </c>
-      <c s="4" r="F3">
-        <v>931010.0</v>
-      </c>
-      <c t="s" s="4" r="G3">
+      <c r="F3" s="19">
+        <v>931010</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="4" r="H3">
+      <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="4" r="I3">
+      <c r="I3" s="19" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="4" r="J3">
+      <c r="J3" s="19" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="4" r="K3">
+      <c r="K3" s="19" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="4" r="L3">
+      <c r="L3" s="19" t="s">
         <v>33</v>
       </c>
-      <c s="5" r="M3"/>
-    </row>
-    <row customHeight="1" r="4" ht="13.5">
-      <c s="6" r="A4"/>
-      <c s="6" r="B4"/>
-      <c s="6" r="C4"/>
-      <c s="6" r="D4"/>
-      <c s="6" r="E4"/>
-      <c s="6" r="F4"/>
-      <c s="7" r="G4"/>
-      <c s="6" r="H4"/>
-      <c s="6" r="I4"/>
-      <c s="6" r="J4"/>
-      <c s="6" r="K4"/>
-      <c s="6" r="L4"/>
-      <c s="5" r="M4"/>
-    </row>
-    <row customHeight="1" r="5" ht="13.5">
-      <c s="6" r="A5"/>
-      <c s="6" r="B5"/>
-      <c s="6" r="C5"/>
-      <c s="6" r="D5"/>
-      <c s="6" r="E5"/>
-      <c s="6" r="F5"/>
-      <c s="7" r="G5"/>
-      <c s="6" r="H5"/>
-      <c s="6" r="I5"/>
-      <c s="6" r="J5"/>
-      <c s="6" r="K5"/>
-      <c s="6" r="L5"/>
-      <c s="5" r="M5"/>
-    </row>
-    <row customHeight="1" r="6" ht="13.5">
-      <c s="6" r="A6"/>
-      <c s="6" r="B6"/>
-      <c s="6" r="C6"/>
-      <c s="6" r="D6"/>
-      <c s="6" r="E6"/>
-      <c s="6" r="F6"/>
-      <c s="7" r="G6"/>
-      <c s="6" r="H6"/>
-      <c s="6" r="I6"/>
-      <c s="6" r="J6"/>
-      <c s="6" r="K6"/>
-      <c s="6" r="L6"/>
-      <c s="5" r="M6"/>
-    </row>
-    <row customHeight="1" r="7" ht="13.5">
-      <c s="6" r="A7"/>
-      <c s="6" r="B7"/>
-      <c s="6" r="C7"/>
-      <c s="6" r="D7"/>
-      <c s="6" r="E7"/>
-      <c s="6" r="F7"/>
-      <c s="7" r="G7"/>
-      <c s="6" r="H7"/>
-      <c s="6" r="I7"/>
-      <c s="6" r="J7"/>
-      <c s="6" r="K7"/>
-      <c s="6" r="L7"/>
-      <c s="5" r="M7"/>
-    </row>
-    <row customHeight="1" r="8" ht="13.5">
-      <c s="6" r="A8"/>
-      <c s="6" r="B8"/>
-      <c s="6" r="C8"/>
-      <c s="6" r="D8"/>
-      <c s="6" r="E8"/>
-      <c s="6" r="F8"/>
-      <c s="7" r="G8"/>
-      <c s="6" r="H8"/>
-      <c s="6" r="I8"/>
-      <c s="6" r="J8"/>
-      <c s="6" r="K8"/>
-      <c s="6" r="L8"/>
-      <c s="5" r="M8"/>
-    </row>
-    <row customHeight="1" r="9" ht="13.5">
-      <c s="6" r="A9"/>
-      <c s="6" r="B9"/>
-      <c s="6" r="C9"/>
-      <c s="6" r="D9"/>
-      <c s="6" r="E9"/>
-      <c s="6" r="F9"/>
-      <c s="7" r="G9"/>
-      <c s="6" r="H9"/>
-      <c s="6" r="I9"/>
-      <c s="6" r="J9"/>
-      <c s="6" r="K9"/>
-      <c s="6" r="L9"/>
-      <c s="5" r="M9"/>
-    </row>
-    <row customHeight="1" r="10" ht="13.5">
-      <c s="6" r="A10"/>
-      <c s="6" r="B10"/>
-      <c s="6" r="C10"/>
-      <c s="6" r="D10"/>
-      <c s="6" r="E10"/>
-      <c s="6" r="F10"/>
-      <c s="7" r="G10"/>
-      <c s="6" r="H10"/>
-      <c s="6" r="I10"/>
-      <c s="6" r="J10"/>
-      <c s="6" r="K10"/>
-      <c s="6" r="L10"/>
-      <c s="5" r="M10"/>
-    </row>
-    <row customHeight="1" r="11" ht="13.5">
-      <c s="6" r="A11"/>
-      <c s="6" r="B11"/>
-      <c s="6" r="C11"/>
-      <c s="6" r="D11"/>
-      <c s="6" r="E11"/>
-      <c s="6" r="F11"/>
-      <c s="7" r="G11"/>
-      <c s="6" r="H11"/>
-      <c s="6" r="I11"/>
-      <c s="6" r="J11"/>
-      <c s="6" r="K11"/>
-      <c s="6" r="L11"/>
-      <c s="5" r="M11"/>
-    </row>
-    <row customHeight="1" r="12" ht="13.5">
-      <c s="6" r="A12"/>
-      <c s="6" r="B12"/>
-      <c s="6" r="C12"/>
-      <c s="6" r="D12"/>
-      <c s="6" r="E12"/>
-      <c s="6" r="F12"/>
-      <c s="7" r="G12"/>
-      <c s="6" r="H12"/>
-      <c s="6" r="I12"/>
-      <c s="6" r="J12"/>
-      <c s="6" r="K12"/>
-      <c s="6" r="L12"/>
-      <c s="5" r="M12"/>
-    </row>
-    <row customHeight="1" r="13" ht="13.5">
-      <c s="6" r="A13"/>
-      <c s="6" r="B13"/>
-      <c s="6" r="C13"/>
-      <c s="6" r="D13"/>
-      <c s="6" r="E13"/>
-      <c s="6" r="F13"/>
-      <c s="7" r="G13"/>
-      <c s="6" r="H13"/>
-      <c s="6" r="I13"/>
-      <c s="6" r="J13"/>
-      <c s="6" r="K13"/>
-      <c s="6" r="L13"/>
-      <c s="5" r="M13"/>
-    </row>
-    <row customHeight="1" r="14" ht="13.5">
-      <c s="6" r="A14"/>
-      <c s="6" r="B14"/>
-      <c s="6" r="C14"/>
-      <c s="6" r="D14"/>
-      <c s="6" r="E14"/>
-      <c s="6" r="F14"/>
-      <c s="7" r="G14"/>
-      <c s="6" r="H14"/>
-      <c s="6" r="I14"/>
-      <c s="6" r="J14"/>
-      <c s="6" r="K14"/>
-      <c s="6" r="L14"/>
-      <c s="5" r="M14"/>
-    </row>
-    <row customHeight="1" r="15" ht="13.5">
-      <c s="6" r="A15"/>
-      <c s="6" r="B15"/>
-      <c s="6" r="C15"/>
-      <c s="6" r="D15"/>
-      <c s="6" r="E15"/>
-      <c s="6" r="F15"/>
-      <c s="7" r="G15"/>
-      <c s="6" r="H15"/>
-      <c s="6" r="I15"/>
-      <c s="6" r="J15"/>
-      <c s="6" r="K15"/>
-      <c s="6" r="L15"/>
-      <c s="5" r="M15"/>
-    </row>
-    <row customHeight="1" r="16" ht="13.5">
-      <c s="6" r="A16"/>
-      <c s="6" r="B16"/>
-      <c s="6" r="C16"/>
-      <c s="6" r="D16"/>
-      <c s="6" r="E16"/>
-      <c s="6" r="F16"/>
-      <c s="7" r="G16"/>
-      <c s="6" r="H16"/>
-      <c s="6" r="I16"/>
-      <c s="6" r="J16"/>
-      <c s="6" r="K16"/>
-      <c s="6" r="L16"/>
-      <c s="5" r="M16"/>
-    </row>
-    <row customHeight="1" r="17" ht="13.5">
-      <c s="6" r="A17"/>
-      <c s="6" r="B17"/>
-      <c s="6" r="C17"/>
-      <c s="6" r="D17"/>
-      <c s="6" r="E17"/>
-      <c s="6" r="F17"/>
-      <c s="7" r="G17"/>
-      <c s="6" r="H17"/>
-      <c s="6" r="I17"/>
-      <c s="6" r="J17"/>
-      <c s="6" r="K17"/>
-      <c s="6" r="L17"/>
-      <c s="5" r="M17"/>
-    </row>
-    <row customHeight="1" r="18" ht="13.5">
-      <c s="6" r="A18"/>
-      <c s="6" r="B18"/>
-      <c s="6" r="C18"/>
-      <c s="6" r="D18"/>
-      <c s="6" r="E18"/>
-      <c s="6" r="F18"/>
-      <c s="7" r="G18"/>
-      <c s="6" r="H18"/>
-      <c s="6" r="I18"/>
-      <c s="6" r="J18"/>
-      <c s="6" r="K18"/>
-      <c s="6" r="L18"/>
-      <c s="5" r="M18"/>
-    </row>
-    <row customHeight="1" r="19" ht="13.5">
-      <c s="6" r="A19"/>
-      <c s="6" r="B19"/>
-      <c s="6" r="C19"/>
-      <c s="6" r="D19"/>
-      <c s="6" r="E19"/>
-      <c s="6" r="F19"/>
-      <c s="7" r="G19"/>
-      <c s="6" r="H19"/>
-      <c s="6" r="I19"/>
-      <c s="6" r="J19"/>
-      <c s="6" r="K19"/>
-      <c s="6" r="L19"/>
-      <c s="5" r="M19"/>
-    </row>
-    <row customHeight="1" r="20" ht="13.5">
-      <c s="6" r="A20"/>
-      <c s="6" r="B20"/>
-      <c s="6" r="C20"/>
-      <c s="6" r="D20"/>
-      <c s="6" r="E20"/>
-      <c s="6" r="F20"/>
-      <c s="7" r="G20"/>
-      <c s="6" r="H20"/>
-      <c s="6" r="I20"/>
-      <c s="6" r="J20"/>
-      <c s="6" r="K20"/>
-      <c s="6" r="L20"/>
-      <c s="5" r="M20"/>
-    </row>
-    <row customHeight="1" r="21" ht="13.5">
-      <c s="6" r="A21"/>
-      <c s="6" r="B21"/>
-      <c s="6" r="C21"/>
-      <c s="6" r="D21"/>
-      <c s="6" r="E21"/>
-      <c s="6" r="F21"/>
-      <c s="7" r="G21"/>
-      <c s="6" r="H21"/>
-      <c s="6" r="I21"/>
-      <c s="6" r="J21"/>
-      <c s="6" r="K21"/>
-      <c s="6" r="L21"/>
-      <c s="5" r="M21"/>
-    </row>
-    <row customHeight="1" r="22" ht="13.5">
-      <c s="6" r="A22"/>
-      <c s="6" r="B22"/>
-      <c s="6" r="C22"/>
-      <c s="6" r="D22"/>
-      <c s="6" r="E22"/>
-      <c s="6" r="F22"/>
-      <c s="7" r="G22"/>
-      <c s="6" r="H22"/>
-      <c s="6" r="I22"/>
-      <c s="6" r="J22"/>
-      <c s="6" r="K22"/>
-      <c s="6" r="L22"/>
-      <c s="5" r="M22"/>
-    </row>
-    <row customHeight="1" r="23" ht="13.5">
-      <c s="6" r="A23"/>
-      <c s="6" r="B23"/>
-      <c s="6" r="C23"/>
-      <c s="6" r="D23"/>
-      <c s="6" r="E23"/>
-      <c s="6" r="F23"/>
-      <c s="7" r="G23"/>
-      <c s="6" r="H23"/>
-      <c s="6" r="I23"/>
-      <c s="6" r="J23"/>
-      <c s="6" r="K23"/>
-      <c s="6" r="L23"/>
-      <c s="5" r="M23"/>
-    </row>
-    <row customHeight="1" r="24" ht="13.5">
-      <c s="6" r="A24"/>
-      <c s="6" r="B24"/>
-      <c s="6" r="C24"/>
-      <c s="6" r="D24"/>
-      <c s="6" r="E24"/>
-      <c s="6" r="F24"/>
-      <c s="7" r="G24"/>
-      <c s="6" r="H24"/>
-      <c s="6" r="I24"/>
-      <c s="6" r="J24"/>
-      <c s="6" r="K24"/>
-      <c s="6" r="L24"/>
-      <c s="5" r="M24"/>
-    </row>
-    <row customHeight="1" r="25" ht="13.5">
-      <c s="6" r="A25"/>
-      <c s="6" r="B25"/>
-      <c s="6" r="C25"/>
-      <c s="6" r="D25"/>
-      <c s="6" r="E25"/>
-      <c s="6" r="F25"/>
-      <c s="7" r="G25"/>
-      <c s="6" r="H25"/>
-      <c s="6" r="I25"/>
-      <c s="6" r="J25"/>
-      <c s="6" r="K25"/>
-      <c s="6" r="L25"/>
-      <c s="5" r="M25"/>
-    </row>
-    <row customHeight="1" r="26" ht="13.5">
-      <c s="6" r="A26"/>
-      <c s="6" r="B26"/>
-      <c s="6" r="C26"/>
-      <c s="6" r="D26"/>
-      <c s="6" r="E26"/>
-      <c s="6" r="F26"/>
-      <c s="7" r="G26"/>
-      <c s="6" r="H26"/>
-      <c s="6" r="I26"/>
-      <c s="6" r="J26"/>
-      <c s="6" r="K26"/>
-      <c s="6" r="L26"/>
-      <c s="5" r="M26"/>
-    </row>
-    <row customHeight="1" r="27" ht="13.5">
-      <c s="6" r="A27"/>
-      <c s="6" r="B27"/>
-      <c s="6" r="C27"/>
-      <c s="6" r="D27"/>
-      <c s="6" r="E27"/>
-      <c s="6" r="F27"/>
-      <c s="7" r="G27"/>
-      <c s="6" r="H27"/>
-      <c s="6" r="I27"/>
-      <c s="6" r="J27"/>
-      <c s="6" r="K27"/>
-      <c s="6" r="L27"/>
-      <c s="5" r="M27"/>
-    </row>
-    <row customHeight="1" r="28" ht="13.5">
-      <c s="6" r="A28"/>
-      <c s="6" r="B28"/>
-      <c s="6" r="C28"/>
-      <c s="6" r="D28"/>
-      <c s="6" r="E28"/>
-      <c s="6" r="F28"/>
-      <c s="7" r="G28"/>
-      <c s="6" r="H28"/>
-      <c s="6" r="I28"/>
-      <c s="6" r="J28"/>
-      <c s="6" r="K28"/>
-      <c s="6" r="L28"/>
-      <c s="5" r="M28"/>
-    </row>
-    <row customHeight="1" r="29" ht="13.5">
-      <c s="6" r="A29"/>
-      <c s="6" r="B29"/>
-      <c s="6" r="C29"/>
-      <c s="6" r="D29"/>
-      <c s="6" r="E29"/>
-      <c s="6" r="F29"/>
-      <c s="7" r="G29"/>
-      <c s="6" r="H29"/>
-      <c s="6" r="I29"/>
-      <c s="6" r="J29"/>
-      <c s="6" r="K29"/>
-      <c s="6" r="L29"/>
-      <c s="5" r="M29"/>
-    </row>
-    <row customHeight="1" r="30" ht="13.5">
-      <c s="6" r="A30"/>
-      <c s="6" r="B30"/>
-      <c s="6" r="C30"/>
-      <c s="6" r="D30"/>
-      <c s="6" r="E30"/>
-      <c s="6" r="F30"/>
-      <c s="7" r="G30"/>
-      <c s="6" r="H30"/>
-      <c s="6" r="I30"/>
-      <c s="6" r="J30"/>
-      <c s="6" r="K30"/>
-      <c s="6" r="L30"/>
-      <c s="5" r="M30"/>
-    </row>
-    <row customHeight="1" r="31" ht="13.5">
-      <c s="6" r="A31"/>
-      <c s="6" r="B31"/>
-      <c s="6" r="C31"/>
-      <c s="6" r="D31"/>
-      <c s="6" r="E31"/>
-      <c s="6" r="F31"/>
-      <c s="7" r="G31"/>
-      <c s="6" r="H31"/>
-      <c s="6" r="I31"/>
-      <c s="6" r="J31"/>
-      <c s="6" r="K31"/>
-      <c s="6" r="L31"/>
-      <c s="5" r="M31"/>
-    </row>
-    <row customHeight="1" r="32" ht="13.5">
-      <c s="6" r="A32"/>
-      <c s="6" r="B32"/>
-      <c s="6" r="C32"/>
-      <c s="6" r="D32"/>
-      <c s="6" r="E32"/>
-      <c s="6" r="F32"/>
-      <c s="7" r="G32"/>
-      <c s="6" r="H32"/>
-      <c s="6" r="I32"/>
-      <c s="6" r="J32"/>
-      <c s="6" r="K32"/>
-      <c s="6" r="L32"/>
-      <c s="5" r="M32"/>
-    </row>
-    <row customHeight="1" r="33" ht="13.5">
-      <c s="6" r="A33"/>
-      <c s="6" r="B33"/>
-      <c s="6" r="C33"/>
-      <c s="6" r="D33"/>
-      <c s="6" r="E33"/>
-      <c s="6" r="F33"/>
-      <c s="7" r="G33"/>
-      <c s="6" r="H33"/>
-      <c s="6" r="I33"/>
-      <c s="6" r="J33"/>
-      <c s="6" r="K33"/>
-      <c s="6" r="L33"/>
-      <c s="5" r="M33"/>
-    </row>
-    <row customHeight="1" r="34" ht="13.5">
-      <c s="6" r="A34"/>
-      <c s="6" r="B34"/>
-      <c s="6" r="C34"/>
-      <c s="6" r="D34"/>
-      <c s="6" r="E34"/>
-      <c s="6" r="F34"/>
-      <c s="7" r="G34"/>
-      <c s="6" r="H34"/>
-      <c s="6" r="I34"/>
-      <c s="6" r="J34"/>
-      <c s="6" r="K34"/>
-      <c s="6" r="L34"/>
-      <c s="5" r="M34"/>
-    </row>
-    <row customHeight="1" r="35" ht="13.5">
-      <c s="6" r="A35"/>
-      <c s="6" r="B35"/>
-      <c s="6" r="C35"/>
-      <c s="6" r="D35"/>
-      <c s="6" r="E35"/>
-      <c s="6" r="F35"/>
-      <c s="7" r="G35"/>
-      <c s="6" r="H35"/>
-      <c s="6" r="I35"/>
-      <c s="6" r="J35"/>
-      <c s="6" r="K35"/>
-      <c s="6" r="L35"/>
-      <c s="5" r="M35"/>
-    </row>
-    <row customHeight="1" r="36" ht="13.5">
-      <c s="6" r="A36"/>
-      <c s="6" r="B36"/>
-      <c s="6" r="C36"/>
-      <c s="6" r="D36"/>
-      <c s="6" r="E36"/>
-      <c s="6" r="F36"/>
-      <c s="7" r="G36"/>
-      <c s="6" r="H36"/>
-      <c s="6" r="I36"/>
-      <c s="6" r="J36"/>
-      <c s="6" r="K36"/>
-      <c s="6" r="L36"/>
-      <c s="5" r="M36"/>
-    </row>
-    <row customHeight="1" r="37" ht="13.5">
-      <c s="6" r="A37"/>
-      <c s="6" r="B37"/>
-      <c s="6" r="C37"/>
-      <c s="6" r="D37"/>
-      <c s="6" r="E37"/>
-      <c s="6" r="F37"/>
-      <c s="7" r="G37"/>
-      <c s="6" r="H37"/>
-      <c s="6" r="I37"/>
-      <c s="6" r="J37"/>
-      <c s="6" r="K37"/>
-      <c s="6" r="L37"/>
-      <c s="5" r="M37"/>
-    </row>
-    <row customHeight="1" r="38" ht="13.5">
-      <c s="6" r="A38"/>
-      <c s="6" r="B38"/>
-      <c s="6" r="C38"/>
-      <c s="6" r="D38"/>
-      <c s="6" r="E38"/>
-      <c s="6" r="F38"/>
-      <c s="7" r="G38"/>
-      <c s="6" r="H38"/>
-      <c s="6" r="I38"/>
-      <c s="6" r="J38"/>
-      <c s="6" r="K38"/>
-      <c s="6" r="L38"/>
-      <c s="5" r="M38"/>
-    </row>
-    <row customHeight="1" r="39" ht="13.5">
-      <c s="6" r="A39"/>
-      <c s="6" r="B39"/>
-      <c s="6" r="C39"/>
-      <c s="6" r="D39"/>
-      <c s="6" r="E39"/>
-      <c s="6" r="F39"/>
-      <c s="7" r="G39"/>
-      <c s="6" r="H39"/>
-      <c s="6" r="I39"/>
-      <c s="6" r="J39"/>
-      <c s="6" r="K39"/>
-      <c s="6" r="L39"/>
-      <c s="5" r="M39"/>
-    </row>
-    <row customHeight="1" r="40" ht="13.5">
-      <c s="6" r="A40"/>
-      <c s="6" r="B40"/>
-      <c s="6" r="C40"/>
-      <c s="6" r="D40"/>
-      <c s="6" r="E40"/>
-      <c s="6" r="F40"/>
-      <c s="7" r="G40"/>
-      <c s="6" r="H40"/>
-      <c s="6" r="I40"/>
-      <c s="6" r="J40"/>
-      <c s="6" r="K40"/>
-      <c s="6" r="L40"/>
-      <c s="5" r="M40"/>
-    </row>
-    <row customHeight="1" r="41" ht="13.5">
-      <c s="6" r="A41"/>
-      <c s="6" r="B41"/>
-      <c s="6" r="C41"/>
-      <c s="6" r="D41"/>
-      <c s="6" r="E41"/>
-      <c s="6" r="F41"/>
-      <c s="7" r="G41"/>
-      <c s="6" r="H41"/>
-      <c s="6" r="I41"/>
-      <c s="6" r="J41"/>
-      <c s="6" r="K41"/>
-      <c s="6" r="L41"/>
-      <c s="5" r="M41"/>
-    </row>
-    <row customHeight="1" r="42" ht="13.5">
-      <c s="6" r="A42"/>
-      <c s="6" r="B42"/>
-      <c s="6" r="C42"/>
-      <c s="6" r="D42"/>
-      <c s="6" r="E42"/>
-      <c s="6" r="F42"/>
-      <c s="7" r="G42"/>
-      <c s="6" r="H42"/>
-      <c s="6" r="I42"/>
-      <c s="6" r="J42"/>
-      <c s="6" r="K42"/>
-      <c s="6" r="L42"/>
-      <c s="5" r="M42"/>
-    </row>
-    <row customHeight="1" r="43" ht="13.5">
-      <c s="6" r="A43"/>
-      <c s="6" r="B43"/>
-      <c s="6" r="C43"/>
-      <c s="6" r="D43"/>
-      <c s="6" r="E43"/>
-      <c s="6" r="F43"/>
-      <c s="7" r="G43"/>
-      <c s="6" r="H43"/>
-      <c s="6" r="I43"/>
-      <c s="6" r="J43"/>
-      <c s="6" r="K43"/>
-      <c s="6" r="L43"/>
-      <c s="5" r="M43"/>
-    </row>
-    <row customHeight="1" r="44" ht="13.5">
-      <c s="6" r="A44"/>
-      <c s="6" r="B44"/>
-      <c s="6" r="C44"/>
-      <c s="6" r="D44"/>
-      <c s="6" r="E44"/>
-      <c s="6" r="F44"/>
-      <c s="7" r="G44"/>
-      <c s="6" r="H44"/>
-      <c s="6" r="I44"/>
-      <c s="6" r="J44"/>
-      <c s="6" r="K44"/>
-      <c s="6" r="L44"/>
-      <c s="5" r="M44"/>
-    </row>
-    <row customHeight="1" r="45" ht="13.5">
-      <c s="6" r="A45"/>
-      <c s="6" r="B45"/>
-      <c s="6" r="C45"/>
-      <c s="6" r="D45"/>
-      <c s="6" r="E45"/>
-      <c s="6" r="F45"/>
-      <c s="7" r="G45"/>
-      <c s="6" r="H45"/>
-      <c s="6" r="I45"/>
-      <c s="6" r="J45"/>
-      <c s="6" r="K45"/>
-      <c s="6" r="L45"/>
-      <c s="5" r="M45"/>
-    </row>
-    <row customHeight="1" r="46" ht="13.5">
-      <c s="6" r="A46"/>
-      <c s="6" r="B46"/>
-      <c s="6" r="C46"/>
-      <c s="6" r="D46"/>
-      <c s="6" r="E46"/>
-      <c s="6" r="F46"/>
-      <c s="7" r="G46"/>
-      <c s="6" r="H46"/>
-      <c s="6" r="I46"/>
-      <c s="6" r="J46"/>
-      <c s="6" r="K46"/>
-      <c s="6" r="L46"/>
-      <c s="5" r="M46"/>
-    </row>
-    <row customHeight="1" r="47" ht="13.5">
-      <c s="6" r="A47"/>
-      <c s="6" r="B47"/>
-      <c s="6" r="C47"/>
-      <c s="6" r="D47"/>
-      <c s="6" r="E47"/>
-      <c s="6" r="F47"/>
-      <c s="7" r="G47"/>
-      <c s="6" r="H47"/>
-      <c s="6" r="I47"/>
-      <c s="6" r="J47"/>
-      <c s="6" r="K47"/>
-      <c s="6" r="L47"/>
-      <c s="5" r="M47"/>
-    </row>
-    <row customHeight="1" r="48" ht="13.5">
-      <c s="6" r="A48"/>
-      <c s="6" r="B48"/>
-      <c s="6" r="C48"/>
-      <c s="6" r="D48"/>
-      <c s="6" r="E48"/>
-      <c s="6" r="F48"/>
-      <c s="7" r="G48"/>
-      <c s="6" r="H48"/>
-      <c s="6" r="I48"/>
-      <c s="6" r="J48"/>
-      <c s="6" r="K48"/>
-      <c s="6" r="L48"/>
-      <c s="5" r="M48"/>
-    </row>
-    <row customHeight="1" r="49" ht="13.5">
-      <c s="6" r="A49"/>
-      <c s="6" r="B49"/>
-      <c s="6" r="C49"/>
-      <c s="6" r="D49"/>
-      <c s="6" r="E49"/>
-      <c s="6" r="F49"/>
-      <c s="7" r="G49"/>
-      <c s="6" r="H49"/>
-      <c s="6" r="I49"/>
-      <c s="6" r="J49"/>
-      <c s="6" r="K49"/>
-      <c s="6" r="L49"/>
-      <c s="5" r="M49"/>
-    </row>
-    <row customHeight="1" r="50" ht="13.5">
-      <c s="6" r="A50"/>
-      <c s="6" r="B50"/>
-      <c s="6" r="C50"/>
-      <c s="6" r="D50"/>
-      <c s="6" r="E50"/>
-      <c s="6" r="F50"/>
-      <c s="7" r="G50"/>
-      <c s="6" r="H50"/>
-      <c s="6" r="I50"/>
-      <c s="6" r="J50"/>
-      <c s="6" r="K50"/>
-      <c s="6" r="L50"/>
-      <c s="5" r="M50"/>
-    </row>
-    <row customHeight="1" r="51" ht="13.5">
-      <c s="6" r="A51"/>
-      <c s="6" r="B51"/>
-      <c s="6" r="C51"/>
-      <c s="6" r="D51"/>
-      <c s="6" r="E51"/>
-      <c s="6" r="F51"/>
-      <c s="7" r="G51"/>
-      <c s="6" r="H51"/>
-      <c s="6" r="I51"/>
-      <c s="6" r="J51"/>
-      <c s="6" r="K51"/>
-      <c s="6" r="L51"/>
-      <c s="5" r="M51"/>
-    </row>
-    <row customHeight="1" r="52" ht="13.5">
-      <c s="6" r="A52"/>
-      <c s="6" r="B52"/>
-      <c s="6" r="C52"/>
-      <c s="6" r="D52"/>
-      <c s="6" r="E52"/>
-      <c s="6" r="F52"/>
-      <c s="7" r="G52"/>
-      <c s="6" r="H52"/>
-      <c s="6" r="I52"/>
-      <c s="6" r="J52"/>
-      <c s="6" r="K52"/>
-      <c s="6" r="L52"/>
-      <c s="5" r="M52"/>
-    </row>
-    <row customHeight="1" r="53" ht="13.5">
-      <c s="6" r="A53"/>
-      <c s="6" r="B53"/>
-      <c s="6" r="C53"/>
-      <c s="6" r="D53"/>
-      <c s="6" r="E53"/>
-      <c s="6" r="F53"/>
-      <c s="7" r="G53"/>
-      <c s="6" r="H53"/>
-      <c s="6" r="I53"/>
-      <c s="6" r="J53"/>
-      <c s="6" r="K53"/>
-      <c s="6" r="L53"/>
-      <c s="5" r="M53"/>
-    </row>
-    <row customHeight="1" r="54" ht="13.5">
-      <c s="6" r="A54"/>
-      <c s="6" r="B54"/>
-      <c s="6" r="C54"/>
-      <c s="6" r="D54"/>
-      <c s="6" r="E54"/>
-      <c s="6" r="F54"/>
-      <c s="7" r="G54"/>
-      <c s="6" r="H54"/>
-      <c s="6" r="I54"/>
-      <c s="6" r="J54"/>
-      <c s="6" r="K54"/>
-      <c s="6" r="L54"/>
-      <c s="5" r="M54"/>
-    </row>
-    <row customHeight="1" r="55" ht="13.5">
-      <c s="6" r="A55"/>
-      <c s="6" r="B55"/>
-      <c s="6" r="C55"/>
-      <c s="6" r="D55"/>
-      <c s="6" r="E55"/>
-      <c s="6" r="F55"/>
-      <c s="7" r="G55"/>
-      <c s="6" r="H55"/>
-      <c s="6" r="I55"/>
-      <c s="6" r="J55"/>
-      <c s="6" r="K55"/>
-      <c s="6" r="L55"/>
-      <c s="5" r="M55"/>
-    </row>
-    <row customHeight="1" r="56" ht="13.5">
-      <c s="6" r="A56"/>
-      <c s="6" r="B56"/>
-      <c s="6" r="C56"/>
-      <c s="6" r="D56"/>
-      <c s="6" r="E56"/>
-      <c s="6" r="F56"/>
-      <c s="7" r="G56"/>
-      <c s="6" r="H56"/>
-      <c s="6" r="I56"/>
-      <c s="6" r="J56"/>
-      <c s="6" r="K56"/>
-      <c s="6" r="L56"/>
-      <c s="5" r="M56"/>
-    </row>
-    <row customHeight="1" r="57" ht="13.5">
-      <c s="6" r="A57"/>
-      <c s="6" r="B57"/>
-      <c s="6" r="C57"/>
-      <c s="6" r="D57"/>
-      <c s="6" r="E57"/>
-      <c s="6" r="F57"/>
-      <c s="7" r="G57"/>
-      <c s="6" r="H57"/>
-      <c s="6" r="I57"/>
-      <c s="6" r="J57"/>
-      <c s="6" r="K57"/>
-      <c s="6" r="L57"/>
-      <c s="5" r="M57"/>
-    </row>
-    <row customHeight="1" r="58" ht="13.5">
-      <c s="6" r="A58"/>
-      <c s="6" r="B58"/>
-      <c s="6" r="C58"/>
-      <c s="6" r="D58"/>
-      <c s="6" r="E58"/>
-      <c s="6" r="F58"/>
-      <c s="7" r="G58"/>
-      <c s="6" r="H58"/>
-      <c s="6" r="I58"/>
-      <c s="6" r="J58"/>
-      <c s="6" r="K58"/>
-      <c s="6" r="L58"/>
-      <c s="5" r="M58"/>
-    </row>
-    <row customHeight="1" r="59" ht="13.5">
-      <c s="6" r="A59"/>
-      <c s="6" r="B59"/>
-      <c s="6" r="C59"/>
-      <c s="6" r="D59"/>
-      <c s="6" r="E59"/>
-      <c s="6" r="F59"/>
-      <c s="7" r="G59"/>
-      <c s="6" r="H59"/>
-      <c s="6" r="I59"/>
-      <c s="6" r="J59"/>
-      <c s="6" r="K59"/>
-      <c s="6" r="L59"/>
-      <c s="5" r="M59"/>
-    </row>
-    <row customHeight="1" r="60" ht="13.5">
-      <c s="6" r="A60"/>
-      <c s="6" r="B60"/>
-      <c s="6" r="C60"/>
-      <c s="6" r="D60"/>
-      <c s="6" r="E60"/>
-      <c s="6" r="F60"/>
-      <c s="7" r="G60"/>
-      <c s="6" r="H60"/>
-      <c s="6" r="I60"/>
-      <c s="6" r="J60"/>
-      <c s="6" r="K60"/>
-      <c s="6" r="L60"/>
-      <c s="5" r="M60"/>
-    </row>
-    <row customHeight="1" r="61" ht="13.5">
-      <c s="6" r="A61"/>
-      <c s="6" r="B61"/>
-      <c s="6" r="C61"/>
-      <c s="6" r="D61"/>
-      <c s="6" r="E61"/>
-      <c s="6" r="F61"/>
-      <c s="7" r="G61"/>
-      <c s="6" r="H61"/>
-      <c s="6" r="I61"/>
-      <c s="6" r="J61"/>
-      <c s="6" r="K61"/>
-      <c s="6" r="L61"/>
-      <c s="5" r="M61"/>
-    </row>
-    <row customHeight="1" r="62" ht="13.5">
-      <c s="6" r="A62"/>
-      <c s="6" r="B62"/>
-      <c s="6" r="C62"/>
-      <c s="6" r="D62"/>
-      <c s="6" r="E62"/>
-      <c s="6" r="F62"/>
-      <c s="7" r="G62"/>
-      <c s="6" r="H62"/>
-      <c s="6" r="I62"/>
-      <c s="6" r="J62"/>
-      <c s="6" r="K62"/>
-      <c s="6" r="L62"/>
-      <c s="5" r="M62"/>
-    </row>
-    <row customHeight="1" r="63" ht="13.5">
-      <c s="6" r="A63"/>
-      <c s="6" r="B63"/>
-      <c s="6" r="C63"/>
-      <c s="6" r="D63"/>
-      <c s="6" r="E63"/>
-      <c s="6" r="F63"/>
-      <c s="7" r="G63"/>
-      <c s="6" r="H63"/>
-      <c s="6" r="I63"/>
-      <c s="6" r="J63"/>
-      <c s="6" r="K63"/>
-      <c s="6" r="L63"/>
-      <c s="5" r="M63"/>
-    </row>
-    <row customHeight="1" r="64" ht="13.5">
-      <c s="6" r="A64"/>
-      <c s="6" r="B64"/>
-      <c s="6" r="C64"/>
-      <c s="6" r="D64"/>
-      <c s="6" r="E64"/>
-      <c s="6" r="F64"/>
-      <c s="7" r="G64"/>
-      <c s="6" r="H64"/>
-      <c s="6" r="I64"/>
-      <c s="6" r="J64"/>
-      <c s="6" r="K64"/>
-      <c s="6" r="L64"/>
-      <c s="5" r="M64"/>
-    </row>
-    <row customHeight="1" r="65" ht="13.5">
-      <c s="6" r="A65"/>
-      <c s="6" r="B65"/>
-      <c s="6" r="C65"/>
-      <c s="6" r="D65"/>
-      <c s="6" r="E65"/>
-      <c s="6" r="F65"/>
-      <c s="7" r="G65"/>
-      <c s="6" r="H65"/>
-      <c s="6" r="I65"/>
-      <c s="6" r="J65"/>
-      <c s="6" r="K65"/>
-      <c s="6" r="L65"/>
-      <c s="5" r="M65"/>
-    </row>
-    <row customHeight="1" r="66" ht="13.5">
-      <c s="6" r="A66"/>
-      <c s="6" r="B66"/>
-      <c s="6" r="C66"/>
-      <c s="6" r="D66"/>
-      <c s="6" r="E66"/>
-      <c s="6" r="F66"/>
-      <c s="7" r="G66"/>
-      <c s="6" r="H66"/>
-      <c s="6" r="I66"/>
-      <c s="6" r="J66"/>
-      <c s="6" r="K66"/>
-      <c s="6" r="L66"/>
-      <c s="5" r="M66"/>
-    </row>
-    <row customHeight="1" r="67" ht="13.5">
-      <c s="6" r="A67"/>
-      <c s="6" r="B67"/>
-      <c s="6" r="C67"/>
-      <c s="6" r="D67"/>
-      <c s="6" r="E67"/>
-      <c s="6" r="F67"/>
-      <c s="7" r="G67"/>
-      <c s="6" r="H67"/>
-      <c s="6" r="I67"/>
-      <c s="6" r="J67"/>
-      <c s="6" r="K67"/>
-      <c s="6" r="L67"/>
-      <c s="5" r="M67"/>
-    </row>
-    <row customHeight="1" r="68" ht="13.5">
-      <c s="6" r="A68"/>
-      <c s="6" r="B68"/>
-      <c s="6" r="C68"/>
-      <c s="6" r="D68"/>
-      <c s="6" r="E68"/>
-      <c s="6" r="F68"/>
-      <c s="7" r="G68"/>
-      <c s="6" r="H68"/>
-      <c s="6" r="I68"/>
-      <c s="6" r="J68"/>
-      <c s="6" r="K68"/>
-      <c s="6" r="L68"/>
-      <c s="5" r="M68"/>
-    </row>
-    <row customHeight="1" r="69" ht="13.5">
-      <c s="6" r="A69"/>
-      <c s="6" r="B69"/>
-      <c s="6" r="C69"/>
-      <c s="6" r="D69"/>
-      <c s="6" r="E69"/>
-      <c s="6" r="F69"/>
-      <c s="7" r="G69"/>
-      <c s="6" r="H69"/>
-      <c s="6" r="I69"/>
-      <c s="6" r="J69"/>
-      <c s="6" r="K69"/>
-      <c s="6" r="L69"/>
-      <c s="5" r="M69"/>
-    </row>
-    <row customHeight="1" r="70" ht="13.5">
-      <c s="6" r="A70"/>
-      <c s="6" r="B70"/>
-      <c s="6" r="C70"/>
-      <c s="6" r="D70"/>
-      <c s="6" r="E70"/>
-      <c s="6" r="F70"/>
-      <c s="7" r="G70"/>
-      <c s="6" r="H70"/>
-      <c s="6" r="I70"/>
-      <c s="6" r="J70"/>
-      <c s="6" r="K70"/>
-      <c s="6" r="L70"/>
-      <c s="5" r="M70"/>
-    </row>
-    <row customHeight="1" r="71" ht="13.5">
-      <c s="6" r="A71"/>
-      <c s="6" r="B71"/>
-      <c s="6" r="C71"/>
-      <c s="6" r="D71"/>
-      <c s="6" r="E71"/>
-      <c s="6" r="F71"/>
-      <c s="7" r="G71"/>
-      <c s="6" r="H71"/>
-      <c s="6" r="I71"/>
-      <c s="6" r="J71"/>
-      <c s="6" r="K71"/>
-      <c s="6" r="L71"/>
-      <c s="5" r="M71"/>
-    </row>
-    <row customHeight="1" r="72" ht="13.5">
-      <c s="6" r="A72"/>
-      <c s="6" r="B72"/>
-      <c s="6" r="C72"/>
-      <c s="6" r="D72"/>
-      <c s="6" r="E72"/>
-      <c s="6" r="F72"/>
-      <c s="7" r="G72"/>
-      <c s="6" r="H72"/>
-      <c s="6" r="I72"/>
-      <c s="6" r="J72"/>
-      <c s="6" r="K72"/>
-      <c s="6" r="L72"/>
-      <c s="5" r="M72"/>
-    </row>
-    <row customHeight="1" r="73" ht="13.5">
-      <c s="6" r="A73"/>
-      <c s="6" r="B73"/>
-      <c s="6" r="C73"/>
-      <c s="6" r="D73"/>
-      <c s="6" r="E73"/>
-      <c s="6" r="F73"/>
-      <c s="7" r="G73"/>
-      <c s="6" r="H73"/>
-      <c s="6" r="I73"/>
-      <c s="6" r="J73"/>
-      <c s="6" r="K73"/>
-      <c s="6" r="L73"/>
-      <c s="5" r="M73"/>
-    </row>
-    <row customHeight="1" r="74" ht="13.5">
-      <c s="6" r="A74"/>
-      <c s="6" r="B74"/>
-      <c s="6" r="C74"/>
-      <c s="6" r="D74"/>
-      <c s="6" r="E74"/>
-      <c s="6" r="F74"/>
-      <c s="7" r="G74"/>
-      <c s="6" r="H74"/>
-      <c s="6" r="I74"/>
-      <c s="6" r="J74"/>
-      <c s="6" r="K74"/>
-      <c s="6" r="L74"/>
-      <c s="5" r="M74"/>
-    </row>
-    <row customHeight="1" r="75" ht="13.5">
-      <c s="6" r="A75"/>
-      <c s="6" r="B75"/>
-      <c s="6" r="C75"/>
-      <c s="6" r="D75"/>
-      <c s="6" r="E75"/>
-      <c s="6" r="F75"/>
-      <c s="7" r="G75"/>
-      <c s="6" r="H75"/>
-      <c s="6" r="I75"/>
-      <c s="6" r="J75"/>
-      <c s="6" r="K75"/>
-      <c s="6" r="L75"/>
-      <c s="5" r="M75"/>
-    </row>
-    <row customHeight="1" r="76" ht="13.5">
-      <c s="6" r="A76"/>
-      <c s="6" r="B76"/>
-      <c s="6" r="C76"/>
-      <c s="6" r="D76"/>
-      <c s="6" r="E76"/>
-      <c s="6" r="F76"/>
-      <c s="7" r="G76"/>
-      <c s="6" r="H76"/>
-      <c s="6" r="I76"/>
-      <c s="6" r="J76"/>
-      <c s="6" r="K76"/>
-      <c s="6" r="L76"/>
-      <c s="5" r="M76"/>
-    </row>
-    <row customHeight="1" r="77" ht="13.5">
-      <c s="6" r="A77"/>
-      <c s="6" r="B77"/>
-      <c s="6" r="C77"/>
-      <c s="6" r="D77"/>
-      <c s="6" r="E77"/>
-      <c s="6" r="F77"/>
-      <c s="7" r="G77"/>
-      <c s="6" r="H77"/>
-      <c s="6" r="I77"/>
-      <c s="6" r="J77"/>
-      <c s="6" r="K77"/>
-      <c s="6" r="L77"/>
-      <c s="5" r="M77"/>
-    </row>
-    <row customHeight="1" r="78" ht="13.5">
-      <c s="6" r="A78"/>
-      <c s="6" r="B78"/>
-      <c s="6" r="C78"/>
-      <c s="6" r="D78"/>
-      <c s="6" r="E78"/>
-      <c s="6" r="F78"/>
-      <c s="7" r="G78"/>
-      <c s="6" r="H78"/>
-      <c s="6" r="I78"/>
-      <c s="6" r="J78"/>
-      <c s="6" r="K78"/>
-      <c s="6" r="L78"/>
-      <c s="5" r="M78"/>
-    </row>
-    <row customHeight="1" r="79" ht="13.5">
-      <c s="6" r="A79"/>
-      <c s="6" r="B79"/>
-      <c s="6" r="C79"/>
-      <c s="6" r="D79"/>
-      <c s="6" r="E79"/>
-      <c s="6" r="F79"/>
-      <c s="7" r="G79"/>
-      <c s="6" r="H79"/>
-      <c s="6" r="I79"/>
-      <c s="6" r="J79"/>
-      <c s="6" r="K79"/>
-      <c s="6" r="L79"/>
-      <c s="5" r="M79"/>
-    </row>
-    <row customHeight="1" r="80" ht="13.5">
-      <c s="6" r="A80"/>
-      <c s="6" r="B80"/>
-      <c s="6" r="C80"/>
-      <c s="6" r="D80"/>
-      <c s="6" r="E80"/>
-      <c s="6" r="F80"/>
-      <c s="7" r="G80"/>
-      <c s="6" r="H80"/>
-      <c s="6" r="I80"/>
-      <c s="6" r="J80"/>
-      <c s="6" r="K80"/>
-      <c s="6" r="L80"/>
-      <c s="5" r="M80"/>
-    </row>
-    <row customHeight="1" r="81" ht="13.5">
-      <c s="6" r="A81"/>
-      <c s="6" r="B81"/>
-      <c s="6" r="C81"/>
-      <c s="6" r="D81"/>
-      <c s="6" r="E81"/>
-      <c s="6" r="F81"/>
-      <c s="7" r="G81"/>
-      <c s="6" r="H81"/>
-      <c s="6" r="I81"/>
-      <c s="6" r="J81"/>
-      <c s="6" r="K81"/>
-      <c s="6" r="L81"/>
-      <c s="5" r="M81"/>
-    </row>
-    <row customHeight="1" r="82" ht="13.5">
-      <c s="6" r="A82"/>
-      <c s="6" r="B82"/>
-      <c s="6" r="C82"/>
-      <c s="6" r="D82"/>
-      <c s="6" r="E82"/>
-      <c s="6" r="F82"/>
-      <c s="7" r="G82"/>
-      <c s="6" r="H82"/>
-      <c s="6" r="I82"/>
-      <c s="6" r="J82"/>
-      <c s="6" r="K82"/>
-      <c s="6" r="L82"/>
-      <c s="5" r="M82"/>
-    </row>
-    <row customHeight="1" r="83" ht="13.5">
-      <c s="6" r="A83"/>
-      <c s="6" r="B83"/>
-      <c s="6" r="C83"/>
-      <c s="6" r="D83"/>
-      <c s="6" r="E83"/>
-      <c s="6" r="F83"/>
-      <c s="7" r="G83"/>
-      <c s="6" r="H83"/>
-      <c s="6" r="I83"/>
-      <c s="6" r="J83"/>
-      <c s="6" r="K83"/>
-      <c s="6" r="L83"/>
-      <c s="5" r="M83"/>
-    </row>
-    <row customHeight="1" r="84" ht="13.5">
-      <c s="6" r="A84"/>
-      <c s="6" r="B84"/>
-      <c s="6" r="C84"/>
-      <c s="6" r="D84"/>
-      <c s="6" r="E84"/>
-      <c s="6" r="F84"/>
-      <c s="7" r="G84"/>
-      <c s="6" r="H84"/>
-      <c s="6" r="I84"/>
-      <c s="6" r="J84"/>
-      <c s="6" r="K84"/>
-      <c s="6" r="L84"/>
-      <c s="5" r="M84"/>
-    </row>
-    <row customHeight="1" r="85" ht="13.5">
-      <c s="6" r="A85"/>
-      <c s="6" r="B85"/>
-      <c s="6" r="C85"/>
-      <c s="6" r="D85"/>
-      <c s="6" r="E85"/>
-      <c s="6" r="F85"/>
-      <c s="7" r="G85"/>
-      <c s="6" r="H85"/>
-      <c s="6" r="I85"/>
-      <c s="6" r="J85"/>
-      <c s="6" r="K85"/>
-      <c s="6" r="L85"/>
-      <c s="5" r="M85"/>
-    </row>
-    <row customHeight="1" r="86" ht="13.5">
-      <c s="6" r="A86"/>
-      <c s="6" r="B86"/>
-      <c s="6" r="C86"/>
-      <c s="6" r="D86"/>
-      <c s="6" r="E86"/>
-      <c s="6" r="F86"/>
-      <c s="7" r="G86"/>
-      <c s="6" r="H86"/>
-      <c s="6" r="I86"/>
-      <c s="6" r="J86"/>
-      <c s="6" r="K86"/>
-      <c s="6" r="L86"/>
-      <c s="5" r="M86"/>
-    </row>
-    <row customHeight="1" r="87" ht="13.5">
-      <c s="6" r="A87"/>
-      <c s="6" r="B87"/>
-      <c s="6" r="C87"/>
-      <c s="6" r="D87"/>
-      <c s="6" r="E87"/>
-      <c s="6" r="F87"/>
-      <c s="7" r="G87"/>
-      <c s="6" r="H87"/>
-      <c s="6" r="I87"/>
-      <c s="6" r="J87"/>
-      <c s="6" r="K87"/>
-      <c s="6" r="L87"/>
-      <c s="5" r="M87"/>
-    </row>
-    <row customHeight="1" r="88" ht="13.5">
-      <c s="6" r="A88"/>
-      <c s="6" r="B88"/>
-      <c s="6" r="C88"/>
-      <c s="6" r="D88"/>
-      <c s="6" r="E88"/>
-      <c s="6" r="F88"/>
-      <c s="7" r="G88"/>
-      <c s="6" r="H88"/>
-      <c s="6" r="I88"/>
-      <c s="6" r="J88"/>
-      <c s="6" r="K88"/>
-      <c s="6" r="L88"/>
-      <c s="5" r="M88"/>
-    </row>
-    <row customHeight="1" r="89" ht="13.5">
-      <c s="6" r="A89"/>
-      <c s="6" r="B89"/>
-      <c s="6" r="C89"/>
-      <c s="6" r="D89"/>
-      <c s="6" r="E89"/>
-      <c s="6" r="F89"/>
-      <c s="7" r="G89"/>
-      <c s="6" r="H89"/>
-      <c s="6" r="I89"/>
-      <c s="6" r="J89"/>
-      <c s="6" r="K89"/>
-      <c s="6" r="L89"/>
-      <c s="5" r="M89"/>
-    </row>
-    <row customHeight="1" r="90" ht="13.5">
-      <c s="6" r="A90"/>
-      <c s="6" r="B90"/>
-      <c s="6" r="C90"/>
-      <c s="6" r="D90"/>
-      <c s="6" r="E90"/>
-      <c s="6" r="F90"/>
-      <c s="7" r="G90"/>
-      <c s="6" r="H90"/>
-      <c s="6" r="I90"/>
-      <c s="6" r="J90"/>
-      <c s="6" r="K90"/>
-      <c s="6" r="L90"/>
-      <c s="5" r="M90"/>
-    </row>
-    <row customHeight="1" r="91" ht="13.5">
-      <c s="6" r="A91"/>
-      <c s="6" r="B91"/>
-      <c s="6" r="C91"/>
-      <c s="6" r="D91"/>
-      <c s="6" r="E91"/>
-      <c s="6" r="F91"/>
-      <c s="7" r="G91"/>
-      <c s="6" r="H91"/>
-      <c s="6" r="I91"/>
-      <c s="6" r="J91"/>
-      <c s="6" r="K91"/>
-      <c s="6" r="L91"/>
-      <c s="5" r="M91"/>
-    </row>
-    <row customHeight="1" r="92" ht="13.5">
-      <c s="6" r="A92"/>
-      <c s="6" r="B92"/>
-      <c s="6" r="C92"/>
-      <c s="6" r="D92"/>
-      <c s="6" r="E92"/>
-      <c s="6" r="F92"/>
-      <c s="7" r="G92"/>
-      <c s="6" r="H92"/>
-      <c s="6" r="I92"/>
-      <c s="6" r="J92"/>
-      <c s="6" r="K92"/>
-      <c s="6" r="L92"/>
-      <c s="5" r="M92"/>
-    </row>
-    <row customHeight="1" r="93" ht="13.5">
-      <c s="6" r="A93"/>
-      <c s="6" r="B93"/>
-      <c s="6" r="C93"/>
-      <c s="6" r="D93"/>
-      <c s="6" r="E93"/>
-      <c s="6" r="F93"/>
-      <c s="7" r="G93"/>
-      <c s="6" r="H93"/>
-      <c s="6" r="I93"/>
-      <c s="6" r="J93"/>
-      <c s="6" r="K93"/>
-      <c s="6" r="L93"/>
-      <c s="5" r="M93"/>
-    </row>
-    <row customHeight="1" r="94" ht="13.5">
-      <c s="6" r="A94"/>
-      <c s="6" r="B94"/>
-      <c s="6" r="C94"/>
-      <c s="6" r="D94"/>
-      <c s="6" r="E94"/>
-      <c s="6" r="F94"/>
-      <c s="7" r="G94"/>
-      <c s="6" r="H94"/>
-      <c s="6" r="I94"/>
-      <c s="6" r="J94"/>
-      <c s="6" r="K94"/>
-      <c s="6" r="L94"/>
-      <c s="5" r="M94"/>
-    </row>
-    <row customHeight="1" r="95" ht="13.5">
-      <c s="6" r="A95"/>
-      <c s="6" r="B95"/>
-      <c s="6" r="C95"/>
-      <c s="6" r="D95"/>
-      <c s="6" r="E95"/>
-      <c s="6" r="F95"/>
-      <c s="7" r="G95"/>
-      <c s="6" r="H95"/>
-      <c s="6" r="I95"/>
-      <c s="6" r="J95"/>
-      <c s="6" r="K95"/>
-      <c s="6" r="L95"/>
-      <c s="5" r="M95"/>
-    </row>
-    <row customHeight="1" r="96" ht="13.5">
-      <c s="6" r="A96"/>
-      <c s="6" r="B96"/>
-      <c s="6" r="C96"/>
-      <c s="6" r="D96"/>
-      <c s="6" r="E96"/>
-      <c s="6" r="F96"/>
-      <c s="7" r="G96"/>
-      <c s="6" r="H96"/>
-      <c s="6" r="I96"/>
-      <c s="6" r="J96"/>
-      <c s="6" r="K96"/>
-      <c s="6" r="L96"/>
-      <c s="5" r="M96"/>
-    </row>
-    <row customHeight="1" r="97" ht="13.5">
-      <c s="6" r="A97"/>
-      <c s="6" r="B97"/>
-      <c s="6" r="C97"/>
-      <c s="6" r="D97"/>
-      <c s="6" r="E97"/>
-      <c s="6" r="F97"/>
-      <c s="7" r="G97"/>
-      <c s="6" r="H97"/>
-      <c s="6" r="I97"/>
-      <c s="6" r="J97"/>
-      <c s="6" r="K97"/>
-      <c s="6" r="L97"/>
-      <c s="5" r="M97"/>
-    </row>
-    <row customHeight="1" r="98" ht="13.5">
-      <c s="6" r="A98"/>
-      <c s="6" r="B98"/>
-      <c s="6" r="C98"/>
-      <c s="6" r="D98"/>
-      <c s="6" r="E98"/>
-      <c s="6" r="F98"/>
-      <c s="7" r="G98"/>
-      <c s="6" r="H98"/>
-      <c s="6" r="I98"/>
-      <c s="6" r="J98"/>
-      <c s="6" r="K98"/>
-      <c s="6" r="L98"/>
-      <c s="5" r="M98"/>
-    </row>
-    <row customHeight="1" r="99" ht="13.5">
-      <c s="6" r="A99"/>
-      <c s="6" r="B99"/>
-      <c s="6" r="C99"/>
-      <c s="6" r="D99"/>
-      <c s="6" r="E99"/>
-      <c s="6" r="F99"/>
-      <c s="7" r="G99"/>
-      <c s="6" r="H99"/>
-      <c s="6" r="I99"/>
-      <c s="6" r="J99"/>
-      <c s="6" r="K99"/>
-      <c s="6" r="L99"/>
-      <c s="5" r="M99"/>
-    </row>
-    <row customHeight="1" r="100" ht="13.5">
-      <c s="6" r="A100"/>
-      <c s="6" r="B100"/>
-      <c s="6" r="C100"/>
-      <c s="6" r="D100"/>
-      <c s="6" r="E100"/>
-      <c s="6" r="F100"/>
-      <c s="7" r="G100"/>
-      <c s="6" r="H100"/>
-      <c s="6" r="I100"/>
-      <c s="6" r="J100"/>
-      <c s="6" r="K100"/>
-      <c s="6" r="L100"/>
-      <c s="5" r="M100"/>
-    </row>
-    <row customHeight="1" r="101" ht="13.5">
-      <c s="6" r="A101"/>
-      <c s="6" r="B101"/>
-      <c s="6" r="C101"/>
-      <c s="6" r="D101"/>
-      <c s="6" r="E101"/>
-      <c s="6" r="F101"/>
-      <c s="7" r="G101"/>
-      <c s="6" r="H101"/>
-      <c s="6" r="I101"/>
-      <c s="6" r="J101"/>
-      <c s="6" r="K101"/>
-      <c s="6" r="L101"/>
-      <c s="5" r="M101"/>
-    </row>
-    <row customHeight="1" r="102" ht="13.5">
-      <c s="6" r="A102"/>
-      <c s="6" r="B102"/>
-      <c s="6" r="C102"/>
-      <c s="6" r="D102"/>
-      <c s="6" r="E102"/>
-      <c s="6" r="F102"/>
-      <c s="7" r="G102"/>
-      <c s="6" r="H102"/>
-      <c s="6" r="I102"/>
-      <c s="6" r="J102"/>
-      <c s="6" r="K102"/>
-      <c s="6" r="L102"/>
-      <c s="5" r="M102"/>
-    </row>
-    <row customHeight="1" r="103" ht="13.5">
-      <c s="6" r="A103"/>
-      <c s="6" r="B103"/>
-      <c s="6" r="C103"/>
-      <c s="6" r="D103"/>
-      <c s="6" r="E103"/>
-      <c s="6" r="F103"/>
-      <c s="7" r="G103"/>
-      <c s="6" r="H103"/>
-      <c s="6" r="I103"/>
-      <c s="6" r="J103"/>
-      <c s="6" r="K103"/>
-      <c s="6" r="L103"/>
-      <c s="5" r="M103"/>
-    </row>
-    <row customHeight="1" r="104" ht="13.5">
-      <c s="6" r="A104"/>
-      <c s="6" r="B104"/>
-      <c s="6" r="C104"/>
-      <c s="6" r="D104"/>
-      <c s="6" r="E104"/>
-      <c s="6" r="F104"/>
-      <c s="7" r="G104"/>
-      <c s="6" r="H104"/>
-      <c s="6" r="I104"/>
-      <c s="6" r="J104"/>
-      <c s="6" r="K104"/>
-      <c s="6" r="L104"/>
-      <c s="5" r="M104"/>
-    </row>
-    <row customHeight="1" r="105" ht="13.5">
-      <c s="6" r="A105"/>
-      <c s="6" r="B105"/>
-      <c s="6" r="C105"/>
-      <c s="6" r="D105"/>
-      <c s="6" r="E105"/>
-      <c s="6" r="F105"/>
-      <c s="7" r="G105"/>
-      <c s="6" r="H105"/>
-      <c s="6" r="I105"/>
-      <c s="6" r="J105"/>
-      <c s="6" r="K105"/>
-      <c s="6" r="L105"/>
-      <c s="5" r="M105"/>
-    </row>
-    <row customHeight="1" r="106" ht="13.5">
-      <c s="6" r="A106"/>
-      <c s="6" r="B106"/>
-      <c s="6" r="C106"/>
-      <c s="6" r="D106"/>
-      <c s="6" r="E106"/>
-      <c s="6" r="F106"/>
-      <c s="7" r="G106"/>
-      <c s="6" r="H106"/>
-      <c s="6" r="I106"/>
-      <c s="6" r="J106"/>
-      <c s="6" r="K106"/>
-      <c s="6" r="L106"/>
-      <c s="5" r="M106"/>
-    </row>
-    <row customHeight="1" r="107" ht="13.5">
-      <c s="6" r="A107"/>
-      <c s="6" r="B107"/>
-      <c s="6" r="C107"/>
-      <c s="6" r="D107"/>
-      <c s="6" r="E107"/>
-      <c s="6" r="F107"/>
-      <c s="7" r="G107"/>
-      <c s="6" r="H107"/>
-      <c s="6" r="I107"/>
-      <c s="6" r="J107"/>
-      <c s="6" r="K107"/>
-      <c s="6" r="L107"/>
-      <c s="5" r="M107"/>
-    </row>
-    <row customHeight="1" r="108" ht="13.5">
-      <c s="7" r="A108"/>
-      <c s="7" r="B108"/>
-      <c s="7" r="C108"/>
-      <c s="7" r="D108"/>
-      <c s="7" r="E108"/>
-      <c s="6" r="F108"/>
-      <c s="7" r="G108"/>
-      <c s="7" r="H108"/>
-      <c s="6" r="I108"/>
-      <c s="6" r="J108"/>
-      <c s="6" r="K108"/>
-      <c s="6" r="L108"/>
-      <c s="3" r="M108"/>
-    </row>
-    <row customHeight="1" r="109" ht="13.5">
-      <c s="6" r="A109"/>
-      <c s="6" r="B109"/>
-      <c s="6" r="C109"/>
-      <c s="6" r="D109"/>
-      <c s="6" r="E109"/>
-      <c s="6" r="F109"/>
-      <c s="7" r="G109"/>
-      <c s="6" r="H109"/>
-      <c s="6" r="I109"/>
-      <c s="6" r="J109"/>
-      <c s="6" r="K109"/>
-      <c s="6" r="L109"/>
-      <c s="5" r="M109"/>
-    </row>
-    <row customHeight="1" r="110" ht="13.5">
-      <c s="6" r="A110"/>
-      <c s="6" r="B110"/>
-      <c s="8" r="C110"/>
-      <c s="6" r="D110"/>
-      <c s="6" r="E110"/>
-      <c s="6" r="F110"/>
-      <c s="7" r="G110"/>
-      <c s="6" r="H110"/>
-      <c s="6" r="I110"/>
-      <c s="6" r="J110"/>
-      <c s="6" r="K110"/>
-      <c s="6" r="L110"/>
-      <c s="5" r="M110"/>
-    </row>
-    <row customHeight="1" r="111" ht="15.75">
-      <c s="9" r="A111"/>
-      <c s="8" r="B111"/>
-      <c s="9" r="C111"/>
-      <c s="7" r="D111"/>
-      <c s="9" r="E111"/>
-      <c s="6" r="F111"/>
-      <c s="9" r="G111"/>
-      <c s="9" r="H111"/>
-      <c s="9" r="I111"/>
-      <c s="9" r="J111"/>
-      <c s="9" r="K111"/>
-      <c s="8" r="L111"/>
-      <c s="3" r="M111"/>
-    </row>
-    <row customHeight="1" r="112" ht="13.5">
-      <c s="10" r="A112"/>
-      <c s="5" r="B112"/>
-      <c s="5" r="C112"/>
-      <c s="5" r="D112"/>
-      <c s="5" r="E112"/>
-      <c s="11" r="F112"/>
-      <c s="5" r="G112"/>
-      <c s="5" r="H112"/>
-      <c s="5" r="I112"/>
-      <c s="5" r="J112"/>
-      <c s="5" r="K112"/>
-      <c s="5" r="L112"/>
-      <c s="5" r="M112"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="F4" s="19">
+        <v>931010</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="6.14"/>
-    <col min="2" customWidth="1" max="2" width="32.57"/>
-    <col min="3" customWidth="1" max="3" width="11.43"/>
-    <col min="4" customWidth="1" max="4" width="5.43"/>
-    <col min="5" customWidth="1" max="5" width="7.29"/>
-    <col min="6" customWidth="1" max="6" width="9.14"/>
-    <col min="7" customWidth="1" max="9" width="14.29"/>
-    <col min="10" customWidth="1" max="10" width="25.86"/>
-    <col min="11" customWidth="1" max="11" width="15.29"/>
-    <col min="12" customWidth="1" max="12" width="9.14"/>
-    <col min="13" customWidth="1" max="13" width="21.57"/>
-    <col min="14" customWidth="1" max="14" width="13.86"/>
-    <col min="15" customWidth="1" max="16" width="21.57"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="12.75">
-      <c t="s" s="12" r="A1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="13" r="B1">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="13" r="C1">
+      <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="13" r="D1">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="13" r="E1">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="13" r="F1">
+      <c r="F1" s="10" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="13" r="G1">
+      <c r="G1" s="10" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="13" r="H1">
+      <c r="H1" s="10" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="13" r="I1">
+      <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="13" r="J1">
+      <c r="J1" s="10" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="14" r="K1">
+      <c r="K1" s="11" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="14" r="L1">
+      <c r="L1" s="11" t="s">
         <v>45</v>
       </c>
-      <c s="15" r="M1"/>
-      <c t="s" s="15" r="N1">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>46</v>
       </c>
-      <c s="15" r="O1"/>
-      <c s="16" r="P1"/>
-    </row>
-    <row customHeight="1" r="2" ht="12.75">
-      <c t="s" s="17" r="A2">
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="18" r="B2">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="18" r="C2">
+      <c r="C2" s="15" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="18" r="D2">
+      <c r="D2" s="15" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="18" r="E2">
+      <c r="E2" s="15" t="s">
         <v>51</v>
       </c>
-      <c s="18" r="F2">
-        <v>960615.0</v>
-      </c>
-      <c t="s" s="18" r="G2">
+      <c r="F2" s="15">
+        <v>960615</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="18" r="H2">
+      <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="18" r="I2">
+      <c r="I2" s="15" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="18" r="J2">
+      <c r="J2" s="15" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="18" r="K2">
+      <c r="K2" s="15" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="19" r="L2">
+      <c r="L2" s="16" t="s">
         <v>57</v>
       </c>
-      <c s="15" r="M2"/>
-      <c s="15" r="N2"/>
-      <c s="15" r="O2"/>
-      <c s="16" r="P2"/>
-    </row>
-    <row customHeight="1" r="3" ht="12.75">
-      <c t="s" s="17" r="A3">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="18" r="B3">
+      <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="18" r="C3">
+      <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="18" r="D3">
+      <c r="D3" s="15" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="18" r="E3">
+      <c r="E3" s="15" t="s">
         <v>62</v>
       </c>
-      <c s="18" r="F3">
-        <v>930601.0</v>
-      </c>
-      <c t="s" s="18" r="G3">
+      <c r="F3" s="15">
+        <v>930601</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="18" r="H3">
+      <c r="H3" s="15" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="18" r="I3">
+      <c r="I3" s="15" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="18" r="J3">
+      <c r="J3" s="15" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="18" r="K3">
+      <c r="K3" s="15" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="19" r="L3">
+      <c r="L3" s="16" t="s">
         <v>68</v>
       </c>
-      <c s="15" r="M3"/>
-      <c s="15" r="N3"/>
-      <c s="15" r="O3"/>
-      <c s="16" r="P3"/>
-    </row>
-    <row customHeight="1" r="4" ht="12.75">
-      <c t="s" s="17" r="A4">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="18" r="B4">
+      <c r="B4" s="15" t="s">
         <v>70</v>
       </c>
-      <c t="s" s="18" r="C4">
+      <c r="C4" s="15" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="18" r="D4">
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="18" r="E4">
+      <c r="E4" s="15" t="s">
         <v>73</v>
       </c>
-      <c s="18" r="F4">
-        <v>920521.0</v>
-      </c>
-      <c t="s" s="18" r="G4">
+      <c r="F4" s="15">
+        <v>920521</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="18" r="H4">
+      <c r="H4" s="15" t="s">
         <v>75</v>
       </c>
-      <c t="s" s="18" r="I4">
+      <c r="I4" s="15" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="18" r="J4">
+      <c r="J4" s="15" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="18" r="K4">
+      <c r="K4" s="15" t="s">
         <v>78</v>
       </c>
-      <c t="s" s="19" r="L4">
+      <c r="L4" s="16" t="s">
         <v>79</v>
       </c>
-      <c s="15" r="M4"/>
-      <c s="15" r="N4"/>
-      <c s="15" r="O4"/>
-      <c s="16" r="P4"/>
-    </row>
-    <row customHeight="1" r="5" ht="12.75">
-      <c t="s" s="17" r="A5">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="18" r="B5">
+      <c r="B5" s="15" t="s">
         <v>81</v>
       </c>
-      <c t="s" s="18" r="C5">
+      <c r="C5" s="15" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="18" r="D5">
+      <c r="D5" s="15" t="s">
         <v>83</v>
       </c>
-      <c t="s" s="18" r="E5">
+      <c r="E5" s="15" t="s">
         <v>84</v>
       </c>
-      <c s="18" r="F5">
-        <v>930803.0</v>
-      </c>
-      <c t="s" s="18" r="G5">
+      <c r="F5" s="15">
+        <v>930803</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="18" r="H5">
+      <c r="H5" s="15" t="s">
         <v>86</v>
       </c>
-      <c t="s" s="18" r="I5">
+      <c r="I5" s="15" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="18" r="J5">
+      <c r="J5" s="15" t="s">
         <v>88</v>
       </c>
-      <c t="s" s="18" r="K5">
+      <c r="K5" s="15" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="19" r="L5">
+      <c r="L5" s="16" t="s">
         <v>90</v>
       </c>
-      <c s="15" r="M5"/>
-      <c s="15" r="N5"/>
-      <c s="15" r="O5"/>
-      <c s="16" r="P5"/>
-    </row>
-    <row customHeight="1" r="6" ht="12.75">
-      <c t="s" s="17" r="A6">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
-      <c t="s" s="18" r="B6">
+      <c r="B6" s="15" t="s">
         <v>92</v>
       </c>
-      <c t="s" s="18" r="C6">
+      <c r="C6" s="15" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="18" r="D6">
+      <c r="D6" s="15" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="18" r="E6">
+      <c r="E6" s="15" t="s">
         <v>95</v>
       </c>
-      <c s="18" r="F6">
-        <v>941121.0</v>
-      </c>
-      <c t="s" s="18" r="G6">
+      <c r="F6" s="15">
+        <v>941121</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>96</v>
       </c>
-      <c t="s" s="18" r="H6">
+      <c r="H6" s="15" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="18" r="I6">
+      <c r="I6" s="15" t="s">
         <v>98</v>
       </c>
-      <c t="s" s="18" r="J6">
+      <c r="J6" s="15" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="18" r="K6">
+      <c r="K6" s="15" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="19" r="L6">
+      <c r="L6" s="16" t="s">
         <v>101</v>
       </c>
-      <c s="15" r="M6"/>
-      <c s="15" r="N6"/>
-      <c s="15" r="O6"/>
-      <c s="16" r="P6"/>
-    </row>
-    <row customHeight="1" r="7" ht="12.75">
-      <c t="s" s="17" r="A7">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
-      <c t="s" s="18" r="B7">
+      <c r="B7" s="15" t="s">
         <v>103</v>
       </c>
-      <c t="s" s="18" r="C7">
+      <c r="C7" s="15" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="18" r="D7">
+      <c r="D7" s="15" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="18" r="E7">
+      <c r="E7" s="15" t="s">
         <v>106</v>
       </c>
-      <c s="18" r="F7">
-        <v>950518.0</v>
-      </c>
-      <c t="s" s="18" r="G7">
+      <c r="F7" s="15">
+        <v>950518</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="18" r="H7">
+      <c r="H7" s="15" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="18" r="I7">
+      <c r="I7" s="15" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="18" r="J7">
+      <c r="J7" s="15" t="s">
         <v>110</v>
       </c>
-      <c t="s" s="18" r="K7">
+      <c r="K7" s="15" t="s">
         <v>111</v>
       </c>
-      <c t="s" s="19" r="L7">
+      <c r="L7" s="16" t="s">
         <v>112</v>
       </c>
-      <c s="15" r="M7"/>
-      <c s="15" r="N7"/>
-      <c s="15" r="O7"/>
-      <c s="16" r="P7"/>
-    </row>
-    <row customHeight="1" r="8" ht="12.75">
-      <c t="s" s="17" r="A8">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>113</v>
       </c>
-      <c t="s" s="18" r="B8">
+      <c r="B8" s="15" t="s">
         <v>114</v>
       </c>
-      <c t="s" s="18" r="C8">
+      <c r="C8" s="15" t="s">
         <v>115</v>
       </c>
-      <c t="s" s="18" r="D8">
+      <c r="D8" s="15" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="18" r="E8">
+      <c r="E8" s="15" t="s">
         <v>117</v>
       </c>
-      <c s="18" r="F8">
-        <v>950208.0</v>
-      </c>
-      <c t="s" s="18" r="G8">
+      <c r="F8" s="15">
+        <v>950208</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>118</v>
       </c>
-      <c t="s" s="18" r="H8">
+      <c r="H8" s="15" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="18" r="I8">
+      <c r="I8" s="15" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="18" r="J8">
+      <c r="J8" s="15" t="s">
         <v>121</v>
       </c>
-      <c t="s" s="18" r="K8">
+      <c r="K8" s="15" t="s">
         <v>122</v>
       </c>
-      <c t="s" s="19" r="L8">
+      <c r="L8" s="16" t="s">
         <v>123</v>
       </c>
-      <c s="15" r="M8"/>
-      <c s="15" r="N8"/>
-      <c s="15" r="O8"/>
-      <c s="16" r="P8"/>
-    </row>
-    <row customHeight="1" r="9" ht="12.75">
-      <c t="s" s="17" r="A9">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>124</v>
       </c>
-      <c t="s" s="18" r="B9">
+      <c r="B9" s="15" t="s">
         <v>125</v>
       </c>
-      <c t="s" s="18" r="C9">
+      <c r="C9" s="15" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="18" r="D9">
+      <c r="D9" s="15" t="s">
         <v>127</v>
       </c>
-      <c t="s" s="18" r="E9">
+      <c r="E9" s="15" t="s">
         <v>128</v>
       </c>
-      <c s="18" r="F9">
-        <v>970211.0</v>
-      </c>
-      <c t="s" s="18" r="G9">
+      <c r="F9" s="15">
+        <v>970211</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>129</v>
       </c>
-      <c t="s" s="18" r="H9">
+      <c r="H9" s="15" t="s">
         <v>130</v>
       </c>
-      <c t="s" s="18" r="I9">
+      <c r="I9" s="15" t="s">
         <v>131</v>
       </c>
-      <c t="s" s="18" r="J9">
+      <c r="J9" s="15" t="s">
         <v>132</v>
       </c>
-      <c t="s" s="18" r="K9">
+      <c r="K9" s="15" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="19" r="L9">
+      <c r="L9" s="16" t="s">
         <v>134</v>
       </c>
-      <c s="15" r="M9"/>
-      <c s="15" r="N9"/>
-      <c s="15" r="O9"/>
-      <c s="16" r="P9"/>
-    </row>
-    <row customHeight="1" r="10" ht="12.75">
-      <c t="s" s="17" r="A10">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="18" r="B10">
+      <c r="B10" s="15" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="18" r="C10">
+      <c r="C10" s="15" t="s">
         <v>137</v>
       </c>
-      <c t="s" s="18" r="D10">
+      <c r="D10" s="15" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="18" r="E10">
+      <c r="E10" s="15" t="s">
         <v>139</v>
       </c>
-      <c s="18" r="F10">
-        <v>940110.0</v>
-      </c>
-      <c t="s" s="18" r="G10">
+      <c r="F10" s="15">
+        <v>940110</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>140</v>
       </c>
-      <c t="s" s="18" r="H10">
+      <c r="H10" s="15" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="18" r="I10">
+      <c r="I10" s="15" t="s">
         <v>142</v>
       </c>
-      <c t="s" s="18" r="J10">
+      <c r="J10" s="15" t="s">
         <v>143</v>
       </c>
-      <c t="s" s="18" r="K10">
+      <c r="K10" s="15" t="s">
         <v>144</v>
       </c>
-      <c t="s" s="19" r="L10">
+      <c r="L10" s="16" t="s">
         <v>145</v>
       </c>
-      <c s="15" r="M10"/>
-      <c s="15" r="N10"/>
-      <c s="15" r="O10"/>
-      <c s="16" r="P10"/>
-    </row>
-    <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="17" r="A11">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="18" r="B11">
+      <c r="B11" s="15" t="s">
         <v>147</v>
       </c>
-      <c t="s" s="18" r="C11">
+      <c r="C11" s="15" t="s">
         <v>148</v>
       </c>
-      <c t="s" s="18" r="D11">
+      <c r="D11" s="15" t="s">
         <v>149</v>
       </c>
-      <c t="s" s="18" r="E11">
+      <c r="E11" s="15" t="s">
         <v>150</v>
       </c>
-      <c s="18" r="F11">
-        <v>950330.0</v>
-      </c>
-      <c t="s" s="18" r="G11">
+      <c r="F11" s="15">
+        <v>950330</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="18" r="H11">
+      <c r="H11" s="15" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="18" r="I11">
+      <c r="I11" s="15" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="18" r="J11">
+      <c r="J11" s="15" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="18" r="K11">
+      <c r="K11" s="15" t="s">
         <v>155</v>
       </c>
-      <c t="s" s="19" r="L11">
+      <c r="L11" s="16" t="s">
         <v>156</v>
       </c>
-      <c s="15" r="M11"/>
-      <c s="15" r="N11"/>
-      <c s="15" r="O11"/>
-      <c s="16" r="P11"/>
-    </row>
-    <row customHeight="1" r="12" ht="12.75">
-      <c t="s" s="17" r="A12">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="18" r="B12">
+      <c r="B12" s="15" t="s">
         <v>158</v>
       </c>
-      <c t="s" s="18" r="C12">
+      <c r="C12" s="15" t="s">
         <v>159</v>
       </c>
-      <c t="s" s="18" r="D12">
+      <c r="D12" s="15" t="s">
         <v>160</v>
       </c>
-      <c t="s" s="18" r="E12">
+      <c r="E12" s="15" t="s">
         <v>161</v>
       </c>
-      <c s="18" r="F12">
-        <v>950106.0</v>
-      </c>
-      <c t="s" s="18" r="G12">
+      <c r="F12" s="15">
+        <v>950106</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>162</v>
       </c>
-      <c t="s" s="18" r="H12">
+      <c r="H12" s="15" t="s">
         <v>163</v>
       </c>
-      <c t="s" s="18" r="I12">
+      <c r="I12" s="15" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="18" r="J12">
+      <c r="J12" s="15" t="s">
         <v>165</v>
       </c>
-      <c t="s" s="18" r="K12">
+      <c r="K12" s="15" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="19" r="L12">
+      <c r="L12" s="16" t="s">
         <v>167</v>
       </c>
-      <c s="15" r="M12"/>
-      <c s="15" r="N12"/>
-      <c s="15" r="O12"/>
-      <c s="16" r="P12"/>
-    </row>
-    <row customHeight="1" r="13" ht="12.75">
-      <c t="s" s="17" r="A13">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A13" s="14" t="s">
         <v>168</v>
       </c>
-      <c t="s" s="18" r="B13">
+      <c r="B13" s="15" t="s">
         <v>169</v>
       </c>
-      <c t="s" s="18" r="C13">
+      <c r="C13" s="15" t="s">
         <v>170</v>
       </c>
-      <c t="s" s="18" r="D13">
+      <c r="D13" s="15" t="s">
         <v>171</v>
       </c>
-      <c t="s" s="18" r="E13">
+      <c r="E13" s="15" t="s">
         <v>172</v>
       </c>
-      <c s="18" r="F13">
-        <v>951113.0</v>
-      </c>
-      <c t="s" s="18" r="G13">
+      <c r="F13" s="15">
+        <v>951113</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="18" r="H13">
+      <c r="H13" s="15" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="18" r="I13">
+      <c r="I13" s="15" t="s">
         <v>175</v>
       </c>
-      <c t="s" s="18" r="J13">
+      <c r="J13" s="15" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="18" r="K13">
+      <c r="K13" s="15" t="s">
         <v>177</v>
       </c>
-      <c t="s" s="19" r="L13">
+      <c r="L13" s="16" t="s">
         <v>178</v>
       </c>
-      <c s="15" r="M13"/>
-      <c s="15" r="N13"/>
-      <c s="15" r="O13"/>
-      <c s="16" r="P13"/>
-    </row>
-    <row customHeight="1" r="14" ht="12.75">
-      <c t="s" s="17" r="A14">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A14" s="14" t="s">
         <v>179</v>
       </c>
-      <c t="s" s="18" r="B14">
+      <c r="B14" s="15" t="s">
         <v>180</v>
       </c>
-      <c t="s" s="18" r="C14">
+      <c r="C14" s="15" t="s">
         <v>181</v>
       </c>
-      <c t="s" s="18" r="D14">
+      <c r="D14" s="15" t="s">
         <v>182</v>
       </c>
-      <c t="s" s="18" r="E14">
+      <c r="E14" s="15" t="s">
         <v>183</v>
       </c>
-      <c s="18" r="F14">
-        <v>940323.0</v>
-      </c>
-      <c t="s" s="18" r="G14">
+      <c r="F14" s="15">
+        <v>940323</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="18" r="H14">
+      <c r="H14" s="15" t="s">
         <v>185</v>
       </c>
-      <c t="s" s="18" r="I14">
+      <c r="I14" s="15" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="18" r="J14">
+      <c r="J14" s="15" t="s">
         <v>187</v>
       </c>
-      <c t="s" s="18" r="K14">
+      <c r="K14" s="15" t="s">
         <v>188</v>
       </c>
-      <c t="s" s="19" r="L14">
+      <c r="L14" s="16" t="s">
         <v>189</v>
       </c>
-      <c s="15" r="M14"/>
-      <c s="15" r="N14"/>
-      <c s="15" r="O14"/>
-      <c s="16" r="P14"/>
-    </row>
-    <row customHeight="1" r="15" ht="12.75">
-      <c t="s" s="17" r="A15">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="18" r="B15">
+      <c r="B15" s="15" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="18" r="C15">
+      <c r="C15" s="15" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="18" r="D15">
+      <c r="D15" s="15" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="18" r="E15">
+      <c r="E15" s="15" t="s">
         <v>194</v>
       </c>
-      <c s="18" r="F15">
-        <v>940510.0</v>
-      </c>
-      <c t="s" s="18" r="G15">
+      <c r="F15" s="15">
+        <v>940510</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>195</v>
       </c>
-      <c t="s" s="18" r="H15">
+      <c r="H15" s="15" t="s">
         <v>196</v>
       </c>
-      <c t="s" s="18" r="I15">
+      <c r="I15" s="15" t="s">
         <v>197</v>
       </c>
-      <c t="s" s="18" r="J15">
+      <c r="J15" s="15" t="s">
         <v>198</v>
       </c>
-      <c t="s" s="18" r="K15">
+      <c r="K15" s="15" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="19" r="L15">
+      <c r="L15" s="16" t="s">
         <v>200</v>
       </c>
-      <c s="15" r="M15"/>
-      <c s="15" r="N15"/>
-      <c s="15" r="O15"/>
-      <c s="16" r="P15"/>
-    </row>
-    <row customHeight="1" r="16" ht="12.75">
-      <c t="s" s="17" r="A16">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>201</v>
       </c>
-      <c t="s" s="18" r="B16">
+      <c r="B16" s="15" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="18" r="C16">
+      <c r="C16" s="15" t="s">
         <v>203</v>
       </c>
-      <c t="s" s="18" r="D16">
+      <c r="D16" s="15" t="s">
         <v>204</v>
       </c>
-      <c t="s" s="18" r="E16">
+      <c r="E16" s="15" t="s">
         <v>205</v>
       </c>
-      <c s="18" r="F16">
-        <v>940817.0</v>
-      </c>
-      <c t="s" s="18" r="G16">
+      <c r="F16" s="15">
+        <v>940817</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="18" r="H16">
+      <c r="H16" s="15" t="s">
         <v>207</v>
       </c>
-      <c t="s" s="18" r="I16">
+      <c r="I16" s="15" t="s">
         <v>208</v>
       </c>
-      <c t="s" s="18" r="J16">
+      <c r="J16" s="15" t="s">
         <v>209</v>
       </c>
-      <c t="s" s="18" r="K16">
+      <c r="K16" s="15" t="s">
         <v>210</v>
       </c>
-      <c t="s" s="19" r="L16">
+      <c r="L16" s="16" t="s">
         <v>211</v>
       </c>
-      <c s="15" r="M16"/>
-      <c s="15" r="N16"/>
-      <c s="15" r="O16"/>
-      <c s="16" r="P16"/>
-    </row>
-    <row customHeight="1" r="17" ht="12.75">
-      <c t="s" s="17" r="A17">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>212</v>
       </c>
-      <c t="s" s="18" r="B17">
+      <c r="B17" s="15" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="18" r="C17">
+      <c r="C17" s="15" t="s">
         <v>214</v>
       </c>
-      <c t="s" s="18" r="D17">
+      <c r="D17" s="15" t="s">
         <v>215</v>
       </c>
-      <c t="s" s="18" r="E17">
+      <c r="E17" s="15" t="s">
         <v>216</v>
       </c>
-      <c s="18" r="F17">
-        <v>950920.0</v>
-      </c>
-      <c t="s" s="19" r="G17">
+      <c r="F17" s="15">
+        <v>950920</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>217</v>
       </c>
-      <c t="s" s="18" r="H17">
+      <c r="H17" s="15" t="s">
         <v>218</v>
       </c>
-      <c t="s" s="18" r="I17">
+      <c r="I17" s="15" t="s">
         <v>219</v>
       </c>
-      <c t="s" s="18" r="J17">
+      <c r="J17" s="15" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="18" r="K17">
+      <c r="K17" s="15" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="19" r="L17">
+      <c r="L17" s="16" t="s">
         <v>222</v>
       </c>
-      <c s="15" r="M17"/>
-      <c s="15" r="N17"/>
-      <c s="15" r="O17"/>
-      <c s="16" r="P17"/>
-    </row>
-    <row customHeight="1" r="18" ht="12.75">
-      <c t="s" s="17" r="A18">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>223</v>
       </c>
-      <c t="s" s="18" r="B18">
+      <c r="B18" s="15" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="18" r="C18">
+      <c r="C18" s="15" t="s">
         <v>225</v>
       </c>
-      <c t="s" s="18" r="D18">
+      <c r="D18" s="15" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="18" r="E18">
+      <c r="E18" s="15" t="s">
         <v>227</v>
       </c>
-      <c s="18" r="F18">
-        <v>931227.0</v>
-      </c>
-      <c t="s" s="18" r="G18">
+      <c r="F18" s="15">
+        <v>931227</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>228</v>
       </c>
-      <c t="s" s="18" r="H18">
+      <c r="H18" s="15" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="18" r="I18">
+      <c r="I18" s="15" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="18" r="J18">
+      <c r="J18" s="15" t="s">
         <v>231</v>
       </c>
-      <c t="s" s="18" r="K18">
+      <c r="K18" s="15" t="s">
         <v>232</v>
       </c>
-      <c t="s" s="19" r="L18">
+      <c r="L18" s="16" t="s">
         <v>233</v>
       </c>
-      <c s="15" r="M18"/>
-      <c s="15" r="N18"/>
-      <c s="15" r="O18"/>
-      <c s="16" r="P18"/>
-    </row>
-    <row customHeight="1" r="19" ht="12.75">
-      <c t="s" s="17" r="A19">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>234</v>
       </c>
-      <c t="s" s="18" r="B19">
+      <c r="B19" s="15" t="s">
         <v>235</v>
       </c>
-      <c t="s" s="18" r="C19">
+      <c r="C19" s="15" t="s">
         <v>236</v>
       </c>
-      <c t="s" s="18" r="D19">
+      <c r="D19" s="15" t="s">
         <v>237</v>
       </c>
-      <c t="s" s="18" r="E19">
+      <c r="E19" s="15" t="s">
         <v>238</v>
       </c>
-      <c s="18" r="F19">
-        <v>960304.0</v>
-      </c>
-      <c t="s" s="18" r="G19">
+      <c r="F19" s="15">
+        <v>960304</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>239</v>
       </c>
-      <c t="s" s="18" r="H19">
+      <c r="H19" s="15" t="s">
         <v>240</v>
       </c>
-      <c t="s" s="18" r="I19">
+      <c r="I19" s="15" t="s">
         <v>241</v>
       </c>
-      <c t="s" s="18" r="J19">
+      <c r="J19" s="15" t="s">
         <v>242</v>
       </c>
-      <c t="s" s="18" r="K19">
+      <c r="K19" s="15" t="s">
         <v>243</v>
       </c>
-      <c t="s" s="19" r="L19">
+      <c r="L19" s="16" t="s">
         <v>244</v>
       </c>
-      <c s="15" r="M19"/>
-      <c s="15" r="N19"/>
-      <c s="15" r="O19"/>
-      <c s="16" r="P19"/>
-    </row>
-    <row customHeight="1" r="20" ht="12.75">
-      <c t="s" s="17" r="A20">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>245</v>
       </c>
-      <c t="s" s="18" r="B20">
+      <c r="B20" s="15" t="s">
         <v>246</v>
       </c>
-      <c t="s" s="18" r="C20">
+      <c r="C20" s="15" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="18" r="D20">
+      <c r="D20" s="15" t="s">
         <v>248</v>
       </c>
-      <c t="s" s="18" r="E20">
+      <c r="E20" s="15" t="s">
         <v>249</v>
       </c>
-      <c s="18" r="F20">
-        <v>951219.0</v>
-      </c>
-      <c t="s" s="18" r="G20">
+      <c r="F20" s="15">
+        <v>951219</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>250</v>
       </c>
-      <c t="s" s="18" r="H20">
+      <c r="H20" s="15" t="s">
         <v>251</v>
       </c>
-      <c t="s" s="18" r="I20">
+      <c r="I20" s="15" t="s">
         <v>252</v>
       </c>
-      <c t="s" s="18" r="J20">
+      <c r="J20" s="15" t="s">
         <v>253</v>
       </c>
-      <c t="s" s="18" r="K20">
+      <c r="K20" s="15" t="s">
         <v>254</v>
       </c>
-      <c t="s" s="19" r="L20">
+      <c r="L20" s="16" t="s">
         <v>255</v>
       </c>
-      <c s="15" r="M20"/>
-      <c s="15" r="N20"/>
-      <c s="15" r="O20"/>
-      <c s="16" r="P20"/>
-    </row>
-    <row customHeight="1" r="21" ht="12.75">
-      <c t="s" s="17" r="A21">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>256</v>
       </c>
-      <c t="s" s="18" r="B21">
+      <c r="B21" s="15" t="s">
         <v>257</v>
       </c>
-      <c t="s" s="18" r="C21">
+      <c r="C21" s="15" t="s">
         <v>258</v>
       </c>
-      <c t="s" s="18" r="D21">
+      <c r="D21" s="15" t="s">
         <v>259</v>
       </c>
-      <c t="s" s="18" r="E21">
+      <c r="E21" s="15" t="s">
         <v>260</v>
       </c>
-      <c s="18" r="F21">
-        <v>910409.0</v>
-      </c>
-      <c t="s" s="18" r="G21">
+      <c r="F21" s="15">
+        <v>910409</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>261</v>
       </c>
-      <c t="s" s="18" r="H21">
+      <c r="H21" s="15" t="s">
         <v>262</v>
       </c>
-      <c t="s" s="18" r="I21">
+      <c r="I21" s="15" t="s">
         <v>263</v>
       </c>
-      <c t="s" s="18" r="J21">
+      <c r="J21" s="15" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="18" r="K21">
+      <c r="K21" s="15" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="19" r="L21">
+      <c r="L21" s="16" t="s">
         <v>266</v>
       </c>
-      <c s="15" r="M21"/>
-      <c s="15" r="N21"/>
-      <c s="15" r="O21"/>
-      <c s="16" r="P21"/>
-    </row>
-    <row customHeight="1" r="22" ht="12.75">
-      <c t="s" s="17" r="A22">
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A22" s="14" t="s">
         <v>267</v>
       </c>
-      <c t="s" s="17" r="B22">
+      <c r="B22" s="14" t="s">
         <v>268</v>
       </c>
-      <c t="s" s="17" r="C22">
+      <c r="C22" s="14" t="s">
         <v>269</v>
       </c>
-      <c t="s" s="17" r="D22">
+      <c r="D22" s="14" t="s">
         <v>270</v>
       </c>
-      <c t="s" s="17" r="E22">
+      <c r="E22" s="14" t="s">
         <v>271</v>
       </c>
-      <c s="17" r="F22">
-        <v>960315.0</v>
-      </c>
-      <c t="s" s="17" r="G22">
+      <c r="F22" s="14">
+        <v>960315</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>272</v>
       </c>
-      <c t="s" s="17" r="H22">
+      <c r="H22" s="14" t="s">
         <v>273</v>
       </c>
-      <c t="s" s="17" r="I22">
+      <c r="I22" s="14" t="s">
         <v>274</v>
       </c>
-      <c t="s" s="17" r="J22">
+      <c r="J22" s="14" t="s">
         <v>275</v>
       </c>
-      <c t="s" s="17" r="K22">
+      <c r="K22" s="14" t="s">
         <v>276</v>
       </c>
-      <c t="s" s="19" r="L22">
+      <c r="L22" s="16" t="s">
         <v>277</v>
       </c>
-      <c s="16" r="M22"/>
-      <c s="16" r="N22"/>
-      <c s="16" r="O22"/>
-      <c s="16" r="P22"/>
-    </row>
-    <row customHeight="1" r="23" ht="12.75">
-      <c t="s" s="17" r="A23">
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A23" s="14" t="s">
         <v>278</v>
       </c>
-      <c t="s" s="17" r="B23">
+      <c r="B23" s="14" t="s">
         <v>279</v>
       </c>
-      <c t="s" s="17" r="C23">
+      <c r="C23" s="14" t="s">
         <v>280</v>
       </c>
-      <c t="s" s="17" r="D23">
+      <c r="D23" s="14" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="17" r="E23">
+      <c r="E23" s="14" t="s">
         <v>282</v>
       </c>
-      <c s="17" r="F23">
-        <v>930724.0</v>
-      </c>
-      <c t="s" s="17" r="G23">
+      <c r="F23" s="14">
+        <v>930724</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>283</v>
       </c>
-      <c t="s" s="17" r="H23">
+      <c r="H23" s="14" t="s">
         <v>284</v>
       </c>
-      <c t="s" s="17" r="I23">
+      <c r="I23" s="14" t="s">
         <v>285</v>
       </c>
-      <c t="s" s="17" r="J23">
+      <c r="J23" s="14" t="s">
         <v>286</v>
       </c>
-      <c t="s" s="17" r="K23">
+      <c r="K23" s="14" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="19" r="L23">
+      <c r="L23" s="16" t="s">
         <v>288</v>
       </c>
-      <c s="16" r="M23"/>
-      <c s="16" r="N23"/>
-      <c s="16" r="O23"/>
-      <c s="16" r="P23"/>
-    </row>
-    <row customHeight="1" r="24" ht="12.75">
-      <c t="s" s="17" r="A24">
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>289</v>
       </c>
-      <c t="s" s="17" r="B24">
+      <c r="B24" s="14" t="s">
         <v>290</v>
       </c>
-      <c t="s" s="17" r="C24">
+      <c r="C24" s="14" t="s">
         <v>291</v>
       </c>
-      <c t="s" s="17" r="D24">
+      <c r="D24" s="14" t="s">
         <v>292</v>
       </c>
-      <c t="s" s="17" r="E24">
+      <c r="E24" s="14" t="s">
         <v>293</v>
       </c>
-      <c s="17" r="F24">
-        <v>960121.0</v>
-      </c>
-      <c t="s" s="17" r="G24">
+      <c r="F24" s="14">
+        <v>960121</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>294</v>
       </c>
-      <c t="s" s="17" r="H24">
+      <c r="H24" s="14" t="s">
         <v>295</v>
       </c>
-      <c t="s" s="17" r="I24">
+      <c r="I24" s="14" t="s">
         <v>296</v>
       </c>
-      <c t="s" s="17" r="J24">
+      <c r="J24" s="14" t="s">
         <v>297</v>
       </c>
-      <c t="s" s="17" r="K24">
+      <c r="K24" s="14" t="s">
         <v>298</v>
       </c>
-      <c t="s" s="19" r="L24">
+      <c r="L24" s="16" t="s">
         <v>299</v>
       </c>
-      <c s="16" r="M24"/>
-      <c s="16" r="N24"/>
-      <c s="16" r="O24"/>
-      <c s="16" r="P24"/>
-    </row>
-    <row customHeight="1" r="25" ht="12.75">
-      <c t="s" s="17" r="A25">
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="17" r="B25">
+      <c r="B25" s="14" t="s">
         <v>301</v>
       </c>
-      <c t="s" s="17" r="C25">
+      <c r="C25" s="14" t="s">
         <v>302</v>
       </c>
-      <c t="s" s="17" r="D25">
+      <c r="D25" s="14" t="s">
         <v>303</v>
       </c>
-      <c t="s" s="17" r="E25">
+      <c r="E25" s="14" t="s">
         <v>304</v>
       </c>
-      <c s="17" r="F25">
-        <v>910517.0</v>
-      </c>
-      <c t="s" s="17" r="G25">
+      <c r="F25" s="14">
+        <v>910517</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>305</v>
       </c>
-      <c t="s" s="17" r="H25">
+      <c r="H25" s="14" t="s">
         <v>306</v>
       </c>
-      <c t="s" s="17" r="I25">
+      <c r="I25" s="14" t="s">
         <v>307</v>
       </c>
-      <c t="s" s="17" r="J25">
+      <c r="J25" s="14" t="s">
         <v>308</v>
       </c>
-      <c t="s" s="17" r="K25">
+      <c r="K25" s="14" t="s">
         <v>309</v>
       </c>
-      <c t="s" s="19" r="L25">
+      <c r="L25" s="16" t="s">
         <v>310</v>
       </c>
-      <c s="16" r="M25"/>
-      <c s="16" r="N25"/>
-      <c s="16" r="O25"/>
-      <c s="16" r="P25"/>
-    </row>
-    <row customHeight="1" r="26" ht="12.75">
-      <c t="s" s="17" r="A26">
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A26" s="14" t="s">
         <v>311</v>
       </c>
-      <c t="s" s="17" r="B26">
+      <c r="B26" s="14" t="s">
         <v>312</v>
       </c>
-      <c t="s" s="17" r="C26">
+      <c r="C26" s="14" t="s">
         <v>313</v>
       </c>
-      <c t="s" s="17" r="D26">
+      <c r="D26" s="14" t="s">
         <v>314</v>
       </c>
-      <c t="s" s="17" r="E26">
+      <c r="E26" s="14" t="s">
         <v>315</v>
       </c>
-      <c s="17" r="F26">
-        <v>900719.0</v>
-      </c>
-      <c t="s" s="17" r="G26">
+      <c r="F26" s="14">
+        <v>900719</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>316</v>
       </c>
-      <c t="s" s="17" r="H26">
+      <c r="H26" s="14" t="s">
         <v>317</v>
       </c>
-      <c t="s" s="17" r="I26">
+      <c r="I26" s="14" t="s">
         <v>318</v>
       </c>
-      <c t="s" s="17" r="J26">
+      <c r="J26" s="14" t="s">
         <v>319</v>
       </c>
-      <c t="s" s="17" r="K26">
+      <c r="K26" s="14" t="s">
         <v>320</v>
       </c>
-      <c t="s" s="19" r="L26">
+      <c r="L26" s="16" t="s">
         <v>321</v>
       </c>
-      <c s="16" r="M26"/>
-      <c s="16" r="N26"/>
-      <c s="16" r="O26"/>
-      <c s="16" r="P26"/>
-    </row>
-    <row customHeight="1" r="27" ht="12.75">
-      <c t="s" s="17" r="A27">
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>322</v>
       </c>
-      <c t="s" s="17" r="B27">
+      <c r="B27" s="14" t="s">
         <v>323</v>
       </c>
-      <c t="s" s="17" r="C27">
+      <c r="C27" s="14" t="s">
         <v>324</v>
       </c>
-      <c t="s" s="17" r="D27">
+      <c r="D27" s="14" t="s">
         <v>325</v>
       </c>
-      <c t="s" s="17" r="E27">
+      <c r="E27" s="14" t="s">
         <v>326</v>
       </c>
-      <c s="17" r="F27">
-        <v>960516.0</v>
-      </c>
-      <c t="s" s="17" r="G27">
+      <c r="F27" s="14">
+        <v>960516</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>327</v>
       </c>
-      <c t="s" s="17" r="H27">
+      <c r="H27" s="14" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="17" r="I27">
+      <c r="I27" s="14" t="s">
         <v>329</v>
       </c>
-      <c t="s" s="17" r="J27">
+      <c r="J27" s="14" t="s">
         <v>330</v>
       </c>
-      <c t="s" s="17" r="K27">
+      <c r="K27" s="14" t="s">
         <v>331</v>
       </c>
-      <c t="s" s="19" r="L27">
+      <c r="L27" s="16" t="s">
         <v>332</v>
       </c>
-      <c s="16" r="M27"/>
-      <c s="16" r="N27"/>
-      <c s="16" r="O27"/>
-      <c s="16" r="P27"/>
-    </row>
-    <row customHeight="1" r="28" ht="12.75">
-      <c t="s" s="17" r="A28">
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>333</v>
       </c>
-      <c t="s" s="17" r="B28">
+      <c r="B28" s="14" t="s">
         <v>334</v>
       </c>
-      <c t="s" s="17" r="C28">
+      <c r="C28" s="14" t="s">
         <v>335</v>
       </c>
-      <c t="s" s="17" r="D28">
+      <c r="D28" s="14" t="s">
         <v>336</v>
       </c>
-      <c t="s" s="17" r="E28">
+      <c r="E28" s="14" t="s">
         <v>337</v>
       </c>
-      <c s="17" r="F28">
-        <v>940516.0</v>
-      </c>
-      <c t="s" s="17" r="G28">
+      <c r="F28" s="14">
+        <v>940516</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>338</v>
       </c>
-      <c t="s" s="17" r="H28">
+      <c r="H28" s="14" t="s">
         <v>339</v>
       </c>
-      <c t="s" s="17" r="I28">
+      <c r="I28" s="14" t="s">
         <v>340</v>
       </c>
-      <c t="s" s="17" r="J28">
+      <c r="J28" s="14" t="s">
         <v>341</v>
       </c>
-      <c t="s" s="17" r="K28">
+      <c r="K28" s="14" t="s">
         <v>342</v>
       </c>
-      <c t="s" s="19" r="L28">
+      <c r="L28" s="16" t="s">
         <v>343</v>
       </c>
-      <c s="16" r="M28"/>
-      <c s="16" r="N28"/>
-      <c s="16" r="O28"/>
-      <c s="16" r="P28"/>
-    </row>
-    <row customHeight="1" r="29" ht="12.75">
-      <c t="s" s="17" r="A29">
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>344</v>
       </c>
-      <c t="s" s="17" r="B29">
+      <c r="B29" s="14" t="s">
         <v>345</v>
       </c>
-      <c t="s" s="17" r="C29">
+      <c r="C29" s="14" t="s">
         <v>346</v>
       </c>
-      <c t="s" s="17" r="D29">
+      <c r="D29" s="14" t="s">
         <v>347</v>
       </c>
-      <c t="s" s="17" r="E29">
+      <c r="E29" s="14" t="s">
         <v>348</v>
       </c>
-      <c s="17" r="F29">
-        <v>951226.0</v>
-      </c>
-      <c t="s" s="17" r="G29">
+      <c r="F29" s="14">
+        <v>951226</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>349</v>
       </c>
-      <c t="s" s="17" r="H29">
+      <c r="H29" s="14" t="s">
         <v>350</v>
       </c>
-      <c t="s" s="17" r="I29">
+      <c r="I29" s="14" t="s">
         <v>351</v>
       </c>
-      <c t="s" s="17" r="J29">
+      <c r="J29" s="14" t="s">
         <v>352</v>
       </c>
-      <c t="s" s="17" r="K29">
+      <c r="K29" s="14" t="s">
         <v>353</v>
       </c>
-      <c t="s" s="19" r="L29">
+      <c r="L29" s="16" t="s">
         <v>354</v>
       </c>
-      <c s="16" r="M29"/>
-      <c s="16" r="N29"/>
-      <c s="16" r="O29"/>
-      <c s="16" r="P29"/>
-    </row>
-    <row customHeight="1" r="30" ht="12.75">
-      <c t="s" s="17" r="A30">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A30" s="14" t="s">
         <v>355</v>
       </c>
-      <c t="s" s="17" r="B30">
+      <c r="B30" s="14" t="s">
         <v>356</v>
       </c>
-      <c t="s" s="17" r="C30">
+      <c r="C30" s="14" t="s">
         <v>357</v>
       </c>
-      <c t="s" s="17" r="D30">
+      <c r="D30" s="14" t="s">
         <v>358</v>
       </c>
-      <c t="s" s="17" r="E30">
+      <c r="E30" s="14" t="s">
         <v>359</v>
       </c>
-      <c s="17" r="F30">
-        <v>951214.0</v>
-      </c>
-      <c t="s" s="17" r="G30">
+      <c r="F30" s="14">
+        <v>951214</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>360</v>
       </c>
-      <c t="s" s="17" r="H30">
+      <c r="H30" s="14" t="s">
         <v>361</v>
       </c>
-      <c t="s" s="17" r="I30">
+      <c r="I30" s="14" t="s">
         <v>362</v>
       </c>
-      <c t="s" s="17" r="J30">
+      <c r="J30" s="14" t="s">
         <v>363</v>
       </c>
-      <c t="s" s="17" r="K30">
+      <c r="K30" s="14" t="s">
         <v>364</v>
       </c>
-      <c t="s" s="19" r="L30">
+      <c r="L30" s="16" t="s">
         <v>365</v>
       </c>
-      <c s="16" r="M30"/>
-      <c s="16" r="N30"/>
-      <c s="16" r="O30"/>
-      <c s="16" r="P30"/>
-    </row>
-    <row customHeight="1" r="31" ht="12.75">
-      <c t="s" s="17" r="A31">
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A31" s="14" t="s">
         <v>366</v>
       </c>
-      <c t="s" s="17" r="B31">
+      <c r="B31" s="14" t="s">
         <v>367</v>
       </c>
-      <c t="s" s="17" r="C31">
+      <c r="C31" s="14" t="s">
         <v>368</v>
       </c>
-      <c t="s" s="17" r="D31">
+      <c r="D31" s="14" t="s">
         <v>369</v>
       </c>
-      <c t="s" s="17" r="E31">
+      <c r="E31" s="14" t="s">
         <v>370</v>
       </c>
-      <c s="17" r="F31">
-        <v>941122.0</v>
-      </c>
-      <c t="s" s="17" r="G31">
+      <c r="F31" s="14">
+        <v>941122</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>371</v>
       </c>
-      <c t="s" s="17" r="H31">
+      <c r="H31" s="14" t="s">
         <v>372</v>
       </c>
-      <c t="s" s="17" r="I31">
+      <c r="I31" s="14" t="s">
         <v>373</v>
       </c>
-      <c t="s" s="17" r="J31">
+      <c r="J31" s="14" t="s">
         <v>374</v>
       </c>
-      <c t="s" s="17" r="K31">
+      <c r="K31" s="14" t="s">
         <v>375</v>
       </c>
-      <c t="s" s="19" r="L31">
+      <c r="L31" s="16" t="s">
         <v>376</v>
       </c>
-      <c s="16" r="M31"/>
-      <c s="16" r="N31"/>
-      <c s="16" r="O31"/>
-      <c s="16" r="P31"/>
-    </row>
-    <row customHeight="1" r="32" ht="12.75">
-      <c t="s" s="17" r="A32">
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>377</v>
       </c>
-      <c t="s" s="17" r="B32">
+      <c r="B32" s="14" t="s">
         <v>378</v>
       </c>
-      <c t="s" s="17" r="C32">
+      <c r="C32" s="14" t="s">
         <v>379</v>
       </c>
-      <c t="s" s="17" r="D32">
+      <c r="D32" s="14" t="s">
         <v>380</v>
       </c>
-      <c t="s" s="17" r="E32">
+      <c r="E32" s="14" t="s">
         <v>381</v>
       </c>
-      <c s="17" r="F32">
-        <v>950915.0</v>
-      </c>
-      <c t="s" s="17" r="G32">
+      <c r="F32" s="14">
+        <v>950915</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>382</v>
       </c>
-      <c t="s" s="17" r="H32">
+      <c r="H32" s="14" t="s">
         <v>383</v>
       </c>
-      <c t="s" s="17" r="I32">
+      <c r="I32" s="14" t="s">
         <v>384</v>
       </c>
-      <c t="s" s="17" r="J32">
+      <c r="J32" s="14" t="s">
         <v>385</v>
       </c>
-      <c t="s" s="17" r="K32">
+      <c r="K32" s="14" t="s">
         <v>386</v>
       </c>
-      <c t="s" s="19" r="L32">
+      <c r="L32" s="16" t="s">
         <v>387</v>
       </c>
-      <c s="16" r="M32"/>
-      <c s="16" r="N32"/>
-      <c s="16" r="O32"/>
-      <c s="16" r="P32"/>
-    </row>
-    <row customHeight="1" r="33" ht="12.75">
-      <c t="s" s="17" r="A33">
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>388</v>
       </c>
-      <c t="s" s="17" r="B33">
+      <c r="B33" s="14" t="s">
         <v>389</v>
       </c>
-      <c t="s" s="17" r="C33">
+      <c r="C33" s="14" t="s">
         <v>390</v>
       </c>
-      <c t="s" s="17" r="D33">
+      <c r="D33" s="14" t="s">
         <v>391</v>
       </c>
-      <c t="s" s="17" r="E33">
+      <c r="E33" s="14" t="s">
         <v>392</v>
       </c>
-      <c s="17" r="F33">
-        <v>940831.0</v>
-      </c>
-      <c t="s" s="17" r="G33">
+      <c r="F33" s="14">
+        <v>940831</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>393</v>
       </c>
-      <c t="s" s="17" r="H33">
+      <c r="H33" s="14" t="s">
         <v>394</v>
       </c>
-      <c t="s" s="17" r="I33">
+      <c r="I33" s="14" t="s">
         <v>395</v>
       </c>
-      <c t="s" s="17" r="J33">
+      <c r="J33" s="14" t="s">
         <v>396</v>
       </c>
-      <c t="s" s="17" r="K33">
+      <c r="K33" s="14" t="s">
         <v>397</v>
       </c>
-      <c t="s" s="19" r="L33">
+      <c r="L33" s="16" t="s">
         <v>398</v>
       </c>
-      <c s="16" r="M33"/>
-      <c s="16" r="N33"/>
-      <c s="16" r="O33"/>
-      <c s="16" r="P33"/>
-    </row>
-    <row customHeight="1" r="34" ht="12.75">
-      <c t="s" s="17" r="A34">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>399</v>
       </c>
-      <c t="s" s="17" r="B34">
+      <c r="B34" s="14" t="s">
         <v>400</v>
       </c>
-      <c t="s" s="17" r="C34">
+      <c r="C34" s="14" t="s">
         <v>401</v>
       </c>
-      <c t="s" s="17" r="D34">
+      <c r="D34" s="14" t="s">
         <v>402</v>
       </c>
-      <c t="s" s="17" r="E34">
+      <c r="E34" s="14" t="s">
         <v>403</v>
       </c>
-      <c s="17" r="F34">
-        <v>940710.0</v>
-      </c>
-      <c t="s" s="17" r="G34">
+      <c r="F34" s="14">
+        <v>940710</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>404</v>
       </c>
-      <c t="s" s="17" r="H34">
+      <c r="H34" s="14" t="s">
         <v>405</v>
       </c>
-      <c t="s" s="17" r="I34">
+      <c r="I34" s="14" t="s">
         <v>406</v>
       </c>
-      <c t="s" s="17" r="J34">
+      <c r="J34" s="14" t="s">
         <v>407</v>
       </c>
-      <c t="s" s="17" r="K34">
+      <c r="K34" s="14" t="s">
         <v>408</v>
       </c>
-      <c t="s" s="19" r="L34">
+      <c r="L34" s="16" t="s">
         <v>409</v>
       </c>
-      <c s="16" r="M34"/>
-      <c s="16" r="N34"/>
-      <c s="16" r="O34"/>
-      <c s="16" r="P34"/>
-    </row>
-    <row customHeight="1" r="35" ht="12.75">
-      <c t="s" s="17" r="A35">
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A35" s="14" t="s">
         <v>410</v>
       </c>
-      <c t="s" s="17" r="B35">
+      <c r="B35" s="14" t="s">
         <v>411</v>
       </c>
-      <c t="s" s="17" r="C35">
+      <c r="C35" s="14" t="s">
         <v>412</v>
       </c>
-      <c t="s" s="17" r="D35">
+      <c r="D35" s="14" t="s">
         <v>413</v>
       </c>
-      <c t="s" s="17" r="E35">
+      <c r="E35" s="14" t="s">
         <v>414</v>
       </c>
-      <c s="17" r="F35">
-        <v>911224.0</v>
-      </c>
-      <c t="s" s="17" r="G35">
+      <c r="F35" s="14">
+        <v>911224</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>415</v>
       </c>
-      <c t="s" s="17" r="H35">
+      <c r="H35" s="14" t="s">
         <v>416</v>
       </c>
-      <c t="s" s="17" r="I35">
+      <c r="I35" s="14" t="s">
         <v>417</v>
       </c>
-      <c t="s" s="17" r="J35">
+      <c r="J35" s="14" t="s">
         <v>418</v>
       </c>
-      <c t="s" s="17" r="K35">
+      <c r="K35" s="14" t="s">
         <v>419</v>
       </c>
-      <c t="s" s="19" r="L35">
+      <c r="L35" s="16" t="s">
         <v>420</v>
       </c>
-      <c s="16" r="M35"/>
-      <c s="16" r="N35"/>
-      <c s="16" r="O35"/>
-      <c s="16" r="P35"/>
-    </row>
-    <row customHeight="1" r="36" ht="12.75">
-      <c t="s" s="17" r="A36">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>421</v>
       </c>
-      <c t="s" s="17" r="B36">
+      <c r="B36" s="14" t="s">
         <v>422</v>
       </c>
-      <c t="s" s="17" r="C36">
+      <c r="C36" s="14" t="s">
         <v>423</v>
       </c>
-      <c t="s" s="17" r="D36">
+      <c r="D36" s="14" t="s">
         <v>424</v>
       </c>
-      <c t="s" s="17" r="E36">
+      <c r="E36" s="14" t="s">
         <v>425</v>
       </c>
-      <c s="17" r="F36">
-        <v>960212.0</v>
-      </c>
-      <c t="s" s="17" r="G36">
+      <c r="F36" s="14">
+        <v>960212</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>426</v>
       </c>
-      <c t="s" s="17" r="H36">
+      <c r="H36" s="14" t="s">
         <v>427</v>
       </c>
-      <c t="s" s="17" r="I36">
+      <c r="I36" s="14" t="s">
         <v>428</v>
       </c>
-      <c t="s" s="17" r="J36">
+      <c r="J36" s="14" t="s">
         <v>429</v>
       </c>
-      <c t="s" s="17" r="K36">
+      <c r="K36" s="14" t="s">
         <v>430</v>
       </c>
-      <c t="s" s="19" r="L36">
+      <c r="L36" s="16" t="s">
         <v>431</v>
       </c>
-      <c s="16" r="M36"/>
-      <c s="16" r="N36"/>
-      <c s="16" r="O36"/>
-      <c s="16" r="P36"/>
-    </row>
-    <row customHeight="1" r="37" ht="12.75">
-      <c t="s" s="17" r="A37">
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>432</v>
       </c>
-      <c t="s" s="17" r="B37">
+      <c r="B37" s="14" t="s">
         <v>433</v>
       </c>
-      <c t="s" s="17" r="C37">
+      <c r="C37" s="14" t="s">
         <v>434</v>
       </c>
-      <c t="s" s="17" r="D37">
+      <c r="D37" s="14" t="s">
         <v>435</v>
       </c>
-      <c t="s" s="17" r="E37">
+      <c r="E37" s="14" t="s">
         <v>436</v>
       </c>
-      <c s="17" r="F37">
-        <v>951122.0</v>
-      </c>
-      <c t="s" s="17" r="G37">
+      <c r="F37" s="14">
+        <v>951122</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>437</v>
       </c>
-      <c t="s" s="17" r="H37">
+      <c r="H37" s="14" t="s">
         <v>438</v>
       </c>
-      <c t="s" s="17" r="I37">
+      <c r="I37" s="14" t="s">
         <v>439</v>
       </c>
-      <c t="s" s="17" r="J37">
+      <c r="J37" s="14" t="s">
         <v>440</v>
       </c>
-      <c t="s" s="17" r="K37">
+      <c r="K37" s="14" t="s">
         <v>441</v>
       </c>
-      <c t="s" s="19" r="L37">
+      <c r="L37" s="16" t="s">
         <v>442</v>
       </c>
-      <c s="16" r="M37"/>
-      <c s="16" r="N37"/>
-      <c s="16" r="O37"/>
-      <c s="16" r="P37"/>
-    </row>
-    <row customHeight="1" r="38" ht="12.75">
-      <c t="s" s="17" r="A38">
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>443</v>
       </c>
-      <c t="s" s="17" r="B38">
+      <c r="B38" s="14" t="s">
         <v>444</v>
       </c>
-      <c t="s" s="17" r="C38">
+      <c r="C38" s="14" t="s">
         <v>445</v>
       </c>
-      <c t="s" s="17" r="D38">
+      <c r="D38" s="14" t="s">
         <v>446</v>
       </c>
-      <c t="s" s="17" r="E38">
+      <c r="E38" s="14" t="s">
         <v>447</v>
       </c>
-      <c s="17" r="F38">
-        <v>950326.0</v>
-      </c>
-      <c t="s" s="17" r="G38">
+      <c r="F38" s="14">
+        <v>950326</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>448</v>
       </c>
-      <c t="s" s="17" r="H38">
+      <c r="H38" s="14" t="s">
         <v>449</v>
       </c>
-      <c t="s" s="17" r="I38">
+      <c r="I38" s="14" t="s">
         <v>450</v>
       </c>
-      <c t="s" s="17" r="J38">
+      <c r="J38" s="14" t="s">
         <v>451</v>
       </c>
-      <c t="s" s="17" r="K38">
+      <c r="K38" s="14" t="s">
         <v>452</v>
       </c>
-      <c t="s" s="19" r="L38">
+      <c r="L38" s="16" t="s">
         <v>453</v>
       </c>
-      <c s="16" r="M38"/>
-      <c s="16" r="N38"/>
-      <c s="16" r="O38"/>
-      <c s="16" r="P38"/>
-    </row>
-    <row customHeight="1" r="39" ht="12.75">
-      <c t="s" s="17" r="A39">
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A39" s="14" t="s">
         <v>454</v>
       </c>
-      <c t="s" s="17" r="B39">
+      <c r="B39" s="14" t="s">
         <v>455</v>
       </c>
-      <c t="s" s="17" r="C39">
+      <c r="C39" s="14" t="s">
         <v>456</v>
       </c>
-      <c t="s" s="17" r="D39">
+      <c r="D39" s="14" t="s">
         <v>457</v>
       </c>
-      <c t="s" s="17" r="E39">
+      <c r="E39" s="14" t="s">
         <v>458</v>
       </c>
-      <c s="17" r="F39">
-        <v>961007.0</v>
-      </c>
-      <c t="s" s="17" r="G39">
+      <c r="F39" s="14">
+        <v>961007</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>459</v>
       </c>
-      <c t="s" s="17" r="H39">
+      <c r="H39" s="14" t="s">
         <v>460</v>
       </c>
-      <c t="s" s="17" r="I39">
+      <c r="I39" s="14" t="s">
         <v>461</v>
       </c>
-      <c t="s" s="17" r="J39">
+      <c r="J39" s="14" t="s">
         <v>462</v>
       </c>
-      <c t="s" s="17" r="K39">
+      <c r="K39" s="14" t="s">
         <v>463</v>
       </c>
-      <c t="s" s="19" r="L39">
+      <c r="L39" s="16" t="s">
         <v>464</v>
       </c>
-      <c s="16" r="M39"/>
-      <c s="16" r="N39"/>
-      <c s="16" r="O39"/>
-      <c s="16" r="P39"/>
-    </row>
-    <row customHeight="1" r="40" ht="12.75">
-      <c t="s" s="17" r="A40">
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A40" s="14" t="s">
         <v>465</v>
       </c>
-      <c t="s" s="17" r="B40">
+      <c r="B40" s="14" t="s">
         <v>466</v>
       </c>
-      <c t="s" s="17" r="C40">
+      <c r="C40" s="14" t="s">
         <v>467</v>
       </c>
-      <c t="s" s="17" r="D40">
+      <c r="D40" s="14" t="s">
         <v>468</v>
       </c>
-      <c t="s" s="17" r="E40">
+      <c r="E40" s="14" t="s">
         <v>469</v>
       </c>
-      <c s="17" r="F40">
-        <v>950911.0</v>
-      </c>
-      <c t="s" s="17" r="G40">
+      <c r="F40" s="14">
+        <v>950911</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>470</v>
       </c>
-      <c t="s" s="17" r="H40">
+      <c r="H40" s="14" t="s">
         <v>471</v>
       </c>
-      <c t="s" s="17" r="I40">
+      <c r="I40" s="14" t="s">
         <v>472</v>
       </c>
-      <c t="s" s="17" r="J40">
+      <c r="J40" s="14" t="s">
         <v>473</v>
       </c>
-      <c t="s" s="17" r="K40">
+      <c r="K40" s="14" t="s">
         <v>474</v>
       </c>
-      <c t="s" s="19" r="L40">
+      <c r="L40" s="16" t="s">
         <v>475</v>
       </c>
-      <c s="16" r="M40"/>
-      <c s="16" r="N40"/>
-      <c s="16" r="O40"/>
-      <c s="16" r="P40"/>
-    </row>
-    <row customHeight="1" r="41" ht="12.75">
-      <c t="s" s="17" r="A41">
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>476</v>
       </c>
-      <c t="s" s="17" r="B41">
+      <c r="B41" s="14" t="s">
         <v>477</v>
       </c>
-      <c t="s" s="17" r="C41">
+      <c r="C41" s="14" t="s">
         <v>478</v>
       </c>
-      <c t="s" s="17" r="D41">
+      <c r="D41" s="14" t="s">
         <v>479</v>
       </c>
-      <c t="s" s="17" r="E41">
+      <c r="E41" s="14" t="s">
         <v>480</v>
       </c>
-      <c s="17" r="F41">
-        <v>940320.0</v>
-      </c>
-      <c t="s" s="17" r="G41">
+      <c r="F41" s="14">
+        <v>940320</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>481</v>
       </c>
-      <c t="s" s="17" r="H41">
+      <c r="H41" s="14" t="s">
         <v>482</v>
       </c>
-      <c t="s" s="17" r="I41">
+      <c r="I41" s="14" t="s">
         <v>483</v>
       </c>
-      <c t="s" s="17" r="J41">
+      <c r="J41" s="14" t="s">
         <v>484</v>
       </c>
-      <c t="s" s="17" r="K41">
+      <c r="K41" s="14" t="s">
         <v>485</v>
       </c>
-      <c t="s" s="19" r="L41">
+      <c r="L41" s="16" t="s">
         <v>486</v>
       </c>
-      <c s="16" r="M41"/>
-      <c s="16" r="N41"/>
-      <c s="16" r="O41"/>
-      <c s="16" r="P41"/>
-    </row>
-    <row customHeight="1" r="42" ht="12.75">
-      <c t="s" s="17" r="A42">
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A42" s="14" t="s">
         <v>487</v>
       </c>
-      <c t="s" s="17" r="B42">
+      <c r="B42" s="14" t="s">
         <v>488</v>
       </c>
-      <c t="s" s="17" r="C42">
+      <c r="C42" s="14" t="s">
         <v>489</v>
       </c>
-      <c t="s" s="17" r="D42">
+      <c r="D42" s="14" t="s">
         <v>490</v>
       </c>
-      <c t="s" s="17" r="E42">
+      <c r="E42" s="14" t="s">
         <v>491</v>
       </c>
-      <c s="17" r="F42">
-        <v>950624.0</v>
-      </c>
-      <c t="s" s="17" r="G42">
+      <c r="F42" s="14">
+        <v>950624</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>492</v>
       </c>
-      <c t="s" s="17" r="H42">
+      <c r="H42" s="14" t="s">
         <v>493</v>
       </c>
-      <c t="s" s="17" r="I42">
+      <c r="I42" s="14" t="s">
         <v>494</v>
       </c>
-      <c t="s" s="17" r="J42">
+      <c r="J42" s="14" t="s">
         <v>495</v>
       </c>
-      <c t="s" s="17" r="K42">
+      <c r="K42" s="14" t="s">
         <v>496</v>
       </c>
-      <c t="s" s="19" r="L42">
+      <c r="L42" s="16" t="s">
         <v>497</v>
       </c>
-      <c s="16" r="M42"/>
-      <c s="16" r="N42"/>
-      <c s="16" r="O42"/>
-      <c s="16" r="P42"/>
-    </row>
-    <row customHeight="1" r="43" ht="12.75">
-      <c t="s" s="17" r="A43">
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A43" s="14" t="s">
         <v>498</v>
       </c>
-      <c t="s" s="17" r="B43">
+      <c r="B43" s="14" t="s">
         <v>499</v>
       </c>
-      <c t="s" s="17" r="C43">
+      <c r="C43" s="14" t="s">
         <v>500</v>
       </c>
-      <c t="s" s="17" r="D43">
+      <c r="D43" s="14" t="s">
         <v>501</v>
       </c>
-      <c t="s" s="17" r="E43">
+      <c r="E43" s="14" t="s">
         <v>502</v>
       </c>
-      <c s="17" r="F43">
-        <v>950218.0</v>
-      </c>
-      <c t="s" s="17" r="G43">
+      <c r="F43" s="14">
+        <v>950218</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>503</v>
       </c>
-      <c t="s" s="17" r="H43">
+      <c r="H43" s="14" t="s">
         <v>504</v>
       </c>
-      <c t="s" s="17" r="I43">
+      <c r="I43" s="14" t="s">
         <v>505</v>
       </c>
-      <c t="s" s="17" r="J43">
+      <c r="J43" s="14" t="s">
         <v>506</v>
       </c>
-      <c t="s" s="17" r="K43">
+      <c r="K43" s="14" t="s">
         <v>507</v>
       </c>
-      <c t="s" s="19" r="L43">
+      <c r="L43" s="16" t="s">
         <v>508</v>
       </c>
-      <c s="16" r="M43"/>
-      <c s="16" r="N43"/>
-      <c s="16" r="O43"/>
-      <c s="16" r="P43"/>
-    </row>
-    <row customHeight="1" r="44" ht="12.75">
-      <c t="s" s="17" r="A44">
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>509</v>
       </c>
-      <c t="s" s="17" r="B44">
+      <c r="B44" s="14" t="s">
         <v>510</v>
       </c>
-      <c t="s" s="17" r="C44">
+      <c r="C44" s="14" t="s">
         <v>511</v>
       </c>
-      <c t="s" s="17" r="D44">
+      <c r="D44" s="14" t="s">
         <v>512</v>
       </c>
-      <c t="s" s="17" r="E44">
+      <c r="E44" s="14" t="s">
         <v>513</v>
       </c>
-      <c s="17" r="F44">
-        <v>950527.0</v>
-      </c>
-      <c t="s" s="17" r="G44">
+      <c r="F44" s="14">
+        <v>950527</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>514</v>
       </c>
-      <c t="s" s="17" r="H44">
+      <c r="H44" s="14" t="s">
         <v>515</v>
       </c>
-      <c t="s" s="17" r="I44">
+      <c r="I44" s="14" t="s">
         <v>516</v>
       </c>
-      <c t="s" s="17" r="J44">
+      <c r="J44" s="14" t="s">
         <v>517</v>
       </c>
-      <c t="s" s="17" r="K44">
+      <c r="K44" s="14" t="s">
         <v>518</v>
       </c>
-      <c t="s" s="19" r="L44">
+      <c r="L44" s="16" t="s">
         <v>519</v>
       </c>
-      <c s="16" r="M44"/>
-      <c s="16" r="N44"/>
-      <c s="16" r="O44"/>
-      <c s="16" r="P44"/>
-    </row>
-    <row customHeight="1" r="45" ht="12.75">
-      <c t="s" s="17" r="A45">
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>520</v>
       </c>
-      <c t="s" s="17" r="B45">
+      <c r="B45" s="14" t="s">
         <v>521</v>
       </c>
-      <c t="s" s="17" r="C45">
+      <c r="C45" s="14" t="s">
         <v>522</v>
       </c>
-      <c t="s" s="17" r="D45">
+      <c r="D45" s="14" t="s">
         <v>523</v>
       </c>
-      <c t="s" s="17" r="E45">
+      <c r="E45" s="14" t="s">
         <v>524</v>
       </c>
-      <c s="17" r="F45">
-        <v>930702.0</v>
-      </c>
-      <c t="s" s="17" r="G45">
+      <c r="F45" s="14">
+        <v>930702</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>525</v>
       </c>
-      <c t="s" s="17" r="H45">
+      <c r="H45" s="14" t="s">
         <v>526</v>
       </c>
-      <c t="s" s="17" r="I45">
+      <c r="I45" s="14" t="s">
         <v>527</v>
       </c>
-      <c t="s" s="17" r="J45">
+      <c r="J45" s="14" t="s">
         <v>528</v>
       </c>
-      <c t="s" s="17" r="K45">
+      <c r="K45" s="14" t="s">
         <v>529</v>
       </c>
-      <c t="s" s="19" r="L45">
+      <c r="L45" s="16" t="s">
         <v>530</v>
       </c>
-      <c s="16" r="M45"/>
-      <c s="16" r="N45"/>
-      <c s="16" r="O45"/>
-      <c s="16" r="P45"/>
-    </row>
-    <row customHeight="1" r="46" ht="12.75">
-      <c t="s" s="17" r="A46">
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A46" s="14" t="s">
         <v>531</v>
       </c>
-      <c t="s" s="17" r="B46">
+      <c r="B46" s="14" t="s">
         <v>532</v>
       </c>
-      <c t="s" s="17" r="C46">
+      <c r="C46" s="14" t="s">
         <v>533</v>
       </c>
-      <c t="s" s="17" r="D46">
+      <c r="D46" s="14" t="s">
         <v>534</v>
       </c>
-      <c t="s" s="17" r="E46">
+      <c r="E46" s="14" t="s">
         <v>535</v>
       </c>
-      <c s="17" r="F46">
-        <v>960119.0</v>
-      </c>
-      <c t="s" s="17" r="G46">
+      <c r="F46" s="14">
+        <v>960119</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>536</v>
       </c>
-      <c t="s" s="17" r="H46">
+      <c r="H46" s="14" t="s">
         <v>537</v>
       </c>
-      <c t="s" s="17" r="I46">
+      <c r="I46" s="14" t="s">
         <v>538</v>
       </c>
-      <c t="s" s="17" r="J46">
+      <c r="J46" s="14" t="s">
         <v>539</v>
       </c>
-      <c t="s" s="17" r="K46">
+      <c r="K46" s="14" t="s">
         <v>540</v>
       </c>
-      <c t="s" s="19" r="L46">
+      <c r="L46" s="16" t="s">
         <v>541</v>
       </c>
-      <c s="16" r="M46"/>
-      <c s="16" r="N46"/>
-      <c s="16" r="O46"/>
-      <c s="16" r="P46"/>
-    </row>
-    <row customHeight="1" r="47" ht="12.75">
-      <c t="s" s="17" r="A47">
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>542</v>
       </c>
-      <c t="s" s="17" r="B47">
+      <c r="B47" s="14" t="s">
         <v>543</v>
       </c>
-      <c t="s" s="17" r="C47">
+      <c r="C47" s="14" t="s">
         <v>544</v>
       </c>
-      <c t="s" s="17" r="D47">
+      <c r="D47" s="14" t="s">
         <v>545</v>
       </c>
-      <c t="s" s="17" r="E47">
+      <c r="E47" s="14" t="s">
         <v>546</v>
       </c>
-      <c s="17" r="F47">
-        <v>930710.0</v>
-      </c>
-      <c t="s" s="17" r="G47">
+      <c r="F47" s="14">
+        <v>930710</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>547</v>
       </c>
-      <c t="s" s="17" r="H47">
+      <c r="H47" s="14" t="s">
         <v>548</v>
       </c>
-      <c t="s" s="17" r="I47">
+      <c r="I47" s="14" t="s">
         <v>549</v>
       </c>
-      <c t="s" s="17" r="J47">
+      <c r="J47" s="14" t="s">
         <v>550</v>
       </c>
-      <c t="s" s="17" r="K47">
+      <c r="K47" s="14" t="s">
         <v>551</v>
       </c>
-      <c t="s" s="19" r="L47">
+      <c r="L47" s="16" t="s">
         <v>552</v>
       </c>
-      <c s="16" r="M47"/>
-      <c s="16" r="N47"/>
-      <c s="16" r="O47"/>
-      <c s="16" r="P47"/>
-    </row>
-    <row customHeight="1" r="48" ht="12.75">
-      <c t="s" s="17" r="A48">
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>553</v>
       </c>
-      <c t="s" s="17" r="B48">
+      <c r="B48" s="14" t="s">
         <v>554</v>
       </c>
-      <c t="s" s="17" r="C48">
+      <c r="C48" s="14" t="s">
         <v>555</v>
       </c>
-      <c t="s" s="17" r="D48">
+      <c r="D48" s="14" t="s">
         <v>556</v>
       </c>
-      <c t="s" s="17" r="E48">
+      <c r="E48" s="14" t="s">
         <v>557</v>
       </c>
-      <c s="17" r="F48">
-        <v>910817.0</v>
-      </c>
-      <c t="s" s="17" r="G48">
+      <c r="F48" s="14">
+        <v>910817</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>558</v>
       </c>
-      <c t="s" s="17" r="H48">
+      <c r="H48" s="14" t="s">
         <v>559</v>
       </c>
-      <c t="s" s="17" r="I48">
+      <c r="I48" s="14" t="s">
         <v>560</v>
       </c>
-      <c t="s" s="17" r="J48">
+      <c r="J48" s="14" t="s">
         <v>561</v>
       </c>
-      <c t="s" s="17" r="K48">
+      <c r="K48" s="14" t="s">
         <v>562</v>
       </c>
-      <c t="s" s="19" r="L48">
+      <c r="L48" s="16" t="s">
         <v>563</v>
       </c>
-      <c s="16" r="M48"/>
-      <c s="16" r="N48"/>
-      <c s="16" r="O48"/>
-      <c s="16" r="P48"/>
-    </row>
-    <row customHeight="1" r="49" ht="12.75">
-      <c t="s" s="17" r="A49">
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A49" s="14" t="s">
         <v>564</v>
       </c>
-      <c t="s" s="17" r="B49">
+      <c r="B49" s="14" t="s">
         <v>565</v>
       </c>
-      <c t="s" s="17" r="C49">
+      <c r="C49" s="14" t="s">
         <v>566</v>
       </c>
-      <c t="s" s="17" r="D49">
+      <c r="D49" s="14" t="s">
         <v>567</v>
       </c>
-      <c t="s" s="17" r="E49">
+      <c r="E49" s="14" t="s">
         <v>568</v>
       </c>
-      <c s="17" r="F49">
-        <v>940325.0</v>
-      </c>
-      <c t="s" s="17" r="G49">
+      <c r="F49" s="14">
+        <v>940325</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>569</v>
       </c>
-      <c t="s" s="17" r="H49">
+      <c r="H49" s="14" t="s">
         <v>570</v>
       </c>
-      <c t="s" s="17" r="I49">
+      <c r="I49" s="14" t="s">
         <v>571</v>
       </c>
-      <c t="s" s="17" r="J49">
+      <c r="J49" s="14" t="s">
         <v>572</v>
       </c>
-      <c t="s" s="17" r="K49">
+      <c r="K49" s="14" t="s">
         <v>573</v>
       </c>
-      <c t="s" s="19" r="L49">
+      <c r="L49" s="16" t="s">
         <v>574</v>
       </c>
-      <c s="16" r="M49"/>
-      <c s="16" r="N49"/>
-      <c s="16" r="O49"/>
-      <c s="16" r="P49"/>
-    </row>
-    <row customHeight="1" r="50" ht="12.75">
-      <c t="s" s="17" r="A50">
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A50" s="14" t="s">
         <v>575</v>
       </c>
-      <c t="s" s="17" r="B50">
+      <c r="B50" s="14" t="s">
         <v>576</v>
       </c>
-      <c t="s" s="17" r="C50">
+      <c r="C50" s="14" t="s">
         <v>577</v>
       </c>
-      <c t="s" s="17" r="D50">
+      <c r="D50" s="14" t="s">
         <v>578</v>
       </c>
-      <c t="s" s="17" r="E50">
+      <c r="E50" s="14" t="s">
         <v>579</v>
       </c>
-      <c s="17" r="F50">
-        <v>940102.0</v>
-      </c>
-      <c t="s" s="17" r="G50">
+      <c r="F50" s="14">
+        <v>940102</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>580</v>
       </c>
-      <c t="s" s="17" r="H50">
+      <c r="H50" s="14" t="s">
         <v>581</v>
       </c>
-      <c t="s" s="17" r="I50">
+      <c r="I50" s="14" t="s">
         <v>582</v>
       </c>
-      <c t="s" s="17" r="J50">
+      <c r="J50" s="14" t="s">
         <v>583</v>
       </c>
-      <c t="s" s="17" r="K50">
+      <c r="K50" s="14" t="s">
         <v>584</v>
       </c>
-      <c t="s" s="19" r="L50">
+      <c r="L50" s="16" t="s">
         <v>585</v>
       </c>
-      <c s="16" r="M50"/>
-      <c s="16" r="N50"/>
-      <c s="16" r="O50"/>
-      <c s="16" r="P50"/>
-    </row>
-    <row customHeight="1" r="51" ht="12.75">
-      <c t="s" s="17" r="A51">
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A51" s="14" t="s">
         <v>586</v>
       </c>
-      <c t="s" s="17" r="B51">
+      <c r="B51" s="14" t="s">
         <v>587</v>
       </c>
-      <c t="s" s="17" r="C51">
+      <c r="C51" s="14" t="s">
         <v>588</v>
       </c>
-      <c t="s" s="17" r="D51">
+      <c r="D51" s="14" t="s">
         <v>589</v>
       </c>
-      <c t="s" s="17" r="E51">
+      <c r="E51" s="14" t="s">
         <v>590</v>
       </c>
-      <c s="17" r="F51">
-        <v>950620.0</v>
-      </c>
-      <c t="s" s="17" r="G51">
+      <c r="F51" s="14">
+        <v>950620</v>
+      </c>
+      <c r="G51" s="14" t="s">
         <v>591</v>
       </c>
-      <c t="s" s="17" r="H51">
+      <c r="H51" s="14" t="s">
         <v>592</v>
       </c>
-      <c t="s" s="17" r="I51">
+      <c r="I51" s="14" t="s">
         <v>593</v>
       </c>
-      <c t="s" s="17" r="J51">
+      <c r="J51" s="14" t="s">
         <v>594</v>
       </c>
-      <c t="s" s="17" r="K51">
+      <c r="K51" s="14" t="s">
         <v>595</v>
       </c>
-      <c t="s" s="19" r="L51">
+      <c r="L51" s="16" t="s">
         <v>596</v>
       </c>
-      <c s="16" r="M51"/>
-      <c s="16" r="N51"/>
-      <c s="16" r="O51"/>
-      <c s="16" r="P51"/>
-    </row>
-    <row customHeight="1" r="52" ht="12.75">
-      <c t="s" s="17" r="A52">
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A52" s="14" t="s">
         <v>597</v>
       </c>
-      <c t="s" s="17" r="B52">
+      <c r="B52" s="14" t="s">
         <v>598</v>
       </c>
-      <c t="s" s="17" r="C52">
+      <c r="C52" s="14" t="s">
         <v>599</v>
       </c>
-      <c t="s" s="17" r="D52">
+      <c r="D52" s="14" t="s">
         <v>600</v>
       </c>
-      <c t="s" s="17" r="E52">
+      <c r="E52" s="14" t="s">
         <v>601</v>
       </c>
-      <c s="17" r="F52">
-        <v>950119.0</v>
-      </c>
-      <c t="s" s="17" r="G52">
+      <c r="F52" s="14">
+        <v>950119</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>602</v>
       </c>
-      <c t="s" s="17" r="H52">
+      <c r="H52" s="14" t="s">
         <v>603</v>
       </c>
-      <c t="s" s="17" r="I52">
+      <c r="I52" s="14" t="s">
         <v>604</v>
       </c>
-      <c t="s" s="17" r="J52">
+      <c r="J52" s="14" t="s">
         <v>605</v>
       </c>
-      <c t="s" s="17" r="K52">
+      <c r="K52" s="14" t="s">
         <v>606</v>
       </c>
-      <c t="s" s="19" r="L52">
+      <c r="L52" s="16" t="s">
         <v>607</v>
       </c>
-      <c s="16" r="M52"/>
-      <c s="16" r="N52"/>
-      <c s="16" r="O52"/>
-      <c s="16" r="P52"/>
-    </row>
-    <row customHeight="1" r="53" ht="12.75">
-      <c t="s" s="17" r="A53">
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A53" s="14" t="s">
         <v>608</v>
       </c>
-      <c t="s" s="17" r="B53">
+      <c r="B53" s="14" t="s">
         <v>609</v>
       </c>
-      <c t="s" s="17" r="C53">
+      <c r="C53" s="14" t="s">
         <v>610</v>
       </c>
-      <c t="s" s="17" r="D53">
+      <c r="D53" s="14" t="s">
         <v>611</v>
       </c>
-      <c t="s" s="17" r="E53">
+      <c r="E53" s="14" t="s">
         <v>612</v>
       </c>
-      <c s="17" r="F53">
-        <v>951106.0</v>
-      </c>
-      <c t="s" s="17" r="G53">
+      <c r="F53" s="14">
+        <v>951106</v>
+      </c>
+      <c r="G53" s="14" t="s">
         <v>613</v>
       </c>
-      <c t="s" s="17" r="H53">
+      <c r="H53" s="14" t="s">
         <v>614</v>
       </c>
-      <c t="s" s="17" r="I53">
+      <c r="I53" s="14" t="s">
         <v>615</v>
       </c>
-      <c t="s" s="17" r="J53">
+      <c r="J53" s="14" t="s">
         <v>616</v>
       </c>
-      <c t="s" s="17" r="K53">
+      <c r="K53" s="14" t="s">
         <v>617</v>
       </c>
-      <c t="s" s="19" r="L53">
+      <c r="L53" s="16" t="s">
         <v>618</v>
       </c>
-      <c s="16" r="M53"/>
-      <c s="16" r="N53"/>
-      <c s="16" r="O53"/>
-      <c s="16" r="P53"/>
-    </row>
-    <row customHeight="1" r="54" ht="12.75">
-      <c t="s" s="17" r="A54">
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>619</v>
       </c>
-      <c t="s" s="17" r="B54">
+      <c r="B54" s="14" t="s">
         <v>620</v>
       </c>
-      <c t="s" s="17" r="C54">
+      <c r="C54" s="14" t="s">
         <v>621</v>
       </c>
-      <c t="s" s="17" r="D54">
+      <c r="D54" s="14" t="s">
         <v>622</v>
       </c>
-      <c t="s" s="17" r="E54">
+      <c r="E54" s="14" t="s">
         <v>623</v>
       </c>
-      <c s="17" r="F54">
-        <v>940124.0</v>
-      </c>
-      <c t="s" s="17" r="G54">
+      <c r="F54" s="14">
+        <v>940124</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>624</v>
       </c>
-      <c t="s" s="17" r="H54">
+      <c r="H54" s="14" t="s">
         <v>625</v>
       </c>
-      <c t="s" s="17" r="I54">
+      <c r="I54" s="14" t="s">
         <v>626</v>
       </c>
-      <c t="s" s="17" r="J54">
+      <c r="J54" s="14" t="s">
         <v>627</v>
       </c>
-      <c t="s" s="17" r="K54">
+      <c r="K54" s="14" t="s">
         <v>628</v>
       </c>
-      <c t="s" s="19" r="L54">
+      <c r="L54" s="16" t="s">
         <v>629</v>
       </c>
-      <c s="16" r="M54"/>
-      <c s="16" r="N54"/>
-      <c s="16" r="O54"/>
-      <c s="16" r="P54"/>
-    </row>
-    <row customHeight="1" r="55" ht="12.75">
-      <c t="s" s="17" r="A55">
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>630</v>
       </c>
-      <c t="s" s="17" r="B55">
+      <c r="B55" s="14" t="s">
         <v>631</v>
       </c>
-      <c t="s" s="17" r="C55">
+      <c r="C55" s="14" t="s">
         <v>632</v>
       </c>
-      <c t="s" s="17" r="D55">
+      <c r="D55" s="14" t="s">
         <v>633</v>
       </c>
-      <c t="s" s="17" r="E55">
+      <c r="E55" s="14" t="s">
         <v>634</v>
       </c>
-      <c s="17" r="F55">
-        <v>930730.0</v>
-      </c>
-      <c t="s" s="17" r="G55">
+      <c r="F55" s="14">
+        <v>930730</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>635</v>
       </c>
-      <c t="s" s="17" r="H55">
+      <c r="H55" s="14" t="s">
         <v>636</v>
       </c>
-      <c t="s" s="17" r="I55">
+      <c r="I55" s="14" t="s">
         <v>637</v>
       </c>
-      <c t="s" s="17" r="J55">
+      <c r="J55" s="14" t="s">
         <v>638</v>
       </c>
-      <c t="s" s="17" r="K55">
+      <c r="K55" s="14" t="s">
         <v>639</v>
       </c>
-      <c t="s" s="19" r="L55">
+      <c r="L55" s="16" t="s">
         <v>640</v>
       </c>
-      <c s="16" r="M55"/>
-      <c s="16" r="N55"/>
-      <c s="16" r="O55"/>
-      <c s="16" r="P55"/>
-    </row>
-    <row customHeight="1" r="56" ht="12.75">
-      <c t="s" s="17" r="A56">
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>641</v>
       </c>
-      <c t="s" s="17" r="B56">
+      <c r="B56" s="14" t="s">
         <v>642</v>
       </c>
-      <c t="s" s="17" r="C56">
+      <c r="C56" s="14" t="s">
         <v>643</v>
       </c>
-      <c t="s" s="17" r="D56">
+      <c r="D56" s="14" t="s">
         <v>644</v>
       </c>
-      <c t="s" s="17" r="E56">
+      <c r="E56" s="14" t="s">
         <v>645</v>
       </c>
-      <c s="17" r="F56">
-        <v>940325.0</v>
-      </c>
-      <c t="s" s="17" r="G56">
+      <c r="F56" s="14">
+        <v>940325</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>646</v>
       </c>
-      <c t="s" s="17" r="H56">
+      <c r="H56" s="14" t="s">
         <v>647</v>
       </c>
-      <c t="s" s="17" r="I56">
+      <c r="I56" s="14" t="s">
         <v>648</v>
       </c>
-      <c t="s" s="17" r="J56">
+      <c r="J56" s="14" t="s">
         <v>649</v>
       </c>
-      <c t="s" s="17" r="K56">
+      <c r="K56" s="14" t="s">
         <v>650</v>
       </c>
-      <c t="s" s="19" r="L56">
+      <c r="L56" s="16" t="s">
         <v>651</v>
       </c>
-      <c s="16" r="M56"/>
-      <c s="16" r="N56"/>
-      <c s="16" r="O56"/>
-      <c s="16" r="P56"/>
-    </row>
-    <row customHeight="1" r="57" ht="12.75">
-      <c t="s" s="17" r="A57">
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>652</v>
       </c>
-      <c t="s" s="17" r="B57">
+      <c r="B57" s="14" t="s">
         <v>653</v>
       </c>
-      <c t="s" s="17" r="C57">
+      <c r="C57" s="14" t="s">
         <v>654</v>
       </c>
-      <c t="s" s="17" r="D57">
+      <c r="D57" s="14" t="s">
         <v>655</v>
       </c>
-      <c t="s" s="17" r="E57">
+      <c r="E57" s="14" t="s">
         <v>656</v>
       </c>
-      <c s="17" r="F57">
-        <v>951209.0</v>
-      </c>
-      <c t="s" s="17" r="G57">
+      <c r="F57" s="14">
+        <v>951209</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>657</v>
       </c>
-      <c t="s" s="17" r="H57">
+      <c r="H57" s="14" t="s">
         <v>658</v>
       </c>
-      <c t="s" s="17" r="I57">
+      <c r="I57" s="14" t="s">
         <v>659</v>
       </c>
-      <c t="s" s="17" r="J57">
+      <c r="J57" s="14" t="s">
         <v>660</v>
       </c>
-      <c t="s" s="17" r="K57">
+      <c r="K57" s="14" t="s">
         <v>661</v>
       </c>
-      <c t="s" s="19" r="L57">
+      <c r="L57" s="16" t="s">
         <v>662</v>
       </c>
-      <c s="16" r="M57"/>
-      <c s="16" r="N57"/>
-      <c s="16" r="O57"/>
-      <c s="16" r="P57"/>
-    </row>
-    <row customHeight="1" r="58" ht="12.75">
-      <c t="s" s="17" r="A58">
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>663</v>
       </c>
-      <c t="s" s="17" r="B58">
+      <c r="B58" s="14" t="s">
         <v>664</v>
       </c>
-      <c t="s" s="17" r="C58">
+      <c r="C58" s="14" t="s">
         <v>665</v>
       </c>
-      <c t="s" s="17" r="D58">
+      <c r="D58" s="14" t="s">
         <v>666</v>
       </c>
-      <c t="s" s="17" r="E58">
+      <c r="E58" s="14" t="s">
         <v>667</v>
       </c>
-      <c s="17" r="F58">
-        <v>911107.0</v>
-      </c>
-      <c t="s" s="17" r="G58">
+      <c r="F58" s="14">
+        <v>911107</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>668</v>
       </c>
-      <c t="s" s="17" r="H58">
+      <c r="H58" s="14" t="s">
         <v>669</v>
       </c>
-      <c t="s" s="17" r="I58">
+      <c r="I58" s="14" t="s">
         <v>670</v>
       </c>
-      <c t="s" s="17" r="J58">
+      <c r="J58" s="14" t="s">
         <v>671</v>
       </c>
-      <c t="s" s="17" r="K58">
+      <c r="K58" s="14" t="s">
         <v>672</v>
       </c>
-      <c t="s" s="19" r="L58">
+      <c r="L58" s="16" t="s">
         <v>673</v>
       </c>
-      <c s="16" r="M58"/>
-      <c s="16" r="N58"/>
-      <c s="16" r="O58"/>
-      <c s="16" r="P58"/>
-    </row>
-    <row customHeight="1" r="59" ht="12.75">
-      <c t="s" s="17" r="A59">
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>674</v>
       </c>
-      <c t="s" s="17" r="B59">
+      <c r="B59" s="14" t="s">
         <v>675</v>
       </c>
-      <c t="s" s="17" r="C59">
+      <c r="C59" s="14" t="s">
         <v>676</v>
       </c>
-      <c t="s" s="17" r="D59">
+      <c r="D59" s="14" t="s">
         <v>677</v>
       </c>
-      <c t="s" s="17" r="E59">
+      <c r="E59" s="14" t="s">
         <v>678</v>
       </c>
-      <c s="17" r="F59">
-        <v>920111.0</v>
-      </c>
-      <c t="s" s="17" r="G59">
+      <c r="F59" s="14">
+        <v>920111</v>
+      </c>
+      <c r="G59" s="14" t="s">
         <v>679</v>
       </c>
-      <c t="s" s="17" r="H59">
+      <c r="H59" s="14" t="s">
         <v>680</v>
       </c>
-      <c t="s" s="17" r="I59">
+      <c r="I59" s="14" t="s">
         <v>681</v>
       </c>
-      <c t="s" s="17" r="J59">
+      <c r="J59" s="14" t="s">
         <v>682</v>
       </c>
-      <c t="s" s="17" r="K59">
+      <c r="K59" s="14" t="s">
         <v>683</v>
       </c>
-      <c t="s" s="19" r="L59">
+      <c r="L59" s="16" t="s">
         <v>684</v>
       </c>
-      <c s="16" r="M59"/>
-      <c s="16" r="N59"/>
-      <c s="16" r="O59"/>
-      <c s="16" r="P59"/>
-    </row>
-    <row customHeight="1" r="60" ht="12.75">
-      <c t="s" s="17" r="A60">
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>685</v>
       </c>
-      <c t="s" s="17" r="B60">
+      <c r="B60" s="14" t="s">
         <v>686</v>
       </c>
-      <c t="s" s="17" r="C60">
+      <c r="C60" s="14" t="s">
         <v>687</v>
       </c>
-      <c t="s" s="17" r="D60">
+      <c r="D60" s="14" t="s">
         <v>688</v>
       </c>
-      <c t="s" s="17" r="E60">
+      <c r="E60" s="14" t="s">
         <v>689</v>
       </c>
-      <c s="17" r="F60">
-        <v>970204.0</v>
-      </c>
-      <c t="s" s="17" r="G60">
+      <c r="F60" s="14">
+        <v>970204</v>
+      </c>
+      <c r="G60" s="14" t="s">
         <v>690</v>
       </c>
-      <c t="s" s="17" r="H60">
+      <c r="H60" s="14" t="s">
         <v>691</v>
       </c>
-      <c t="s" s="17" r="I60">
+      <c r="I60" s="14" t="s">
         <v>692</v>
       </c>
-      <c t="s" s="17" r="J60">
+      <c r="J60" s="14" t="s">
         <v>693</v>
       </c>
-      <c t="s" s="17" r="K60">
+      <c r="K60" s="14" t="s">
         <v>694</v>
       </c>
-      <c t="s" s="19" r="L60">
+      <c r="L60" s="16" t="s">
         <v>695</v>
       </c>
-      <c s="16" r="M60"/>
-      <c s="16" r="N60"/>
-      <c s="16" r="O60"/>
-      <c s="16" r="P60"/>
-    </row>
-    <row customHeight="1" r="61" ht="12.75">
-      <c t="s" s="17" r="A61">
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>696</v>
       </c>
-      <c t="s" s="17" r="B61">
+      <c r="B61" s="14" t="s">
         <v>697</v>
       </c>
-      <c t="s" s="17" r="C61">
+      <c r="C61" s="14" t="s">
         <v>698</v>
       </c>
-      <c t="s" s="17" r="D61">
+      <c r="D61" s="14" t="s">
         <v>699</v>
       </c>
-      <c t="s" s="17" r="E61">
+      <c r="E61" s="14" t="s">
         <v>700</v>
       </c>
-      <c s="17" r="F61">
-        <v>920312.0</v>
-      </c>
-      <c t="s" s="17" r="G61">
+      <c r="F61" s="14">
+        <v>920312</v>
+      </c>
+      <c r="G61" s="14" t="s">
         <v>701</v>
       </c>
-      <c t="s" s="17" r="H61">
+      <c r="H61" s="14" t="s">
         <v>702</v>
       </c>
-      <c t="s" s="17" r="I61">
+      <c r="I61" s="14" t="s">
         <v>703</v>
       </c>
-      <c t="s" s="17" r="J61">
+      <c r="J61" s="14" t="s">
         <v>704</v>
       </c>
-      <c t="s" s="17" r="K61">
+      <c r="K61" s="14" t="s">
         <v>705</v>
       </c>
-      <c t="s" s="19" r="L61">
+      <c r="L61" s="16" t="s">
         <v>706</v>
       </c>
-      <c s="16" r="M61"/>
-      <c s="16" r="N61"/>
-      <c s="16" r="O61"/>
-      <c s="16" r="P61"/>
-    </row>
-    <row customHeight="1" r="62" ht="12.75">
-      <c t="s" s="17" r="A62">
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>707</v>
       </c>
-      <c t="s" s="17" r="B62">
+      <c r="B62" s="14" t="s">
         <v>708</v>
       </c>
-      <c t="s" s="17" r="C62">
+      <c r="C62" s="14" t="s">
         <v>709</v>
       </c>
-      <c t="s" s="17" r="D62">
+      <c r="D62" s="14" t="s">
         <v>710</v>
       </c>
-      <c t="s" s="17" r="E62">
+      <c r="E62" s="14" t="s">
         <v>711</v>
       </c>
-      <c s="17" r="F62">
-        <v>950105.0</v>
-      </c>
-      <c t="s" s="17" r="G62">
+      <c r="F62" s="14">
+        <v>950105</v>
+      </c>
+      <c r="G62" s="14" t="s">
         <v>712</v>
       </c>
-      <c t="s" s="17" r="H62">
+      <c r="H62" s="14" t="s">
         <v>713</v>
       </c>
-      <c t="s" s="17" r="I62">
+      <c r="I62" s="14" t="s">
         <v>714</v>
       </c>
-      <c t="s" s="17" r="J62">
+      <c r="J62" s="14" t="s">
         <v>715</v>
       </c>
-      <c t="s" s="17" r="K62">
+      <c r="K62" s="14" t="s">
         <v>716</v>
       </c>
-      <c t="s" s="19" r="L62">
+      <c r="L62" s="16" t="s">
         <v>717</v>
       </c>
-      <c s="16" r="M62"/>
-      <c s="16" r="N62"/>
-      <c s="16" r="O62"/>
-      <c s="16" r="P62"/>
-    </row>
-    <row customHeight="1" r="63" ht="12.75">
-      <c t="s" s="17" r="A63">
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>718</v>
       </c>
-      <c t="s" s="17" r="B63">
+      <c r="B63" s="14" t="s">
         <v>719</v>
       </c>
-      <c t="s" s="17" r="C63">
+      <c r="C63" s="14" t="s">
         <v>720</v>
       </c>
-      <c t="s" s="17" r="D63">
+      <c r="D63" s="14" t="s">
         <v>721</v>
       </c>
-      <c t="s" s="17" r="E63">
+      <c r="E63" s="14" t="s">
         <v>722</v>
       </c>
-      <c s="17" r="F63">
-        <v>930617.0</v>
-      </c>
-      <c t="s" s="17" r="G63">
+      <c r="F63" s="14">
+        <v>930617</v>
+      </c>
+      <c r="G63" s="14" t="s">
         <v>723</v>
       </c>
-      <c t="s" s="17" r="H63">
+      <c r="H63" s="14" t="s">
         <v>724</v>
       </c>
-      <c t="s" s="17" r="I63">
+      <c r="I63" s="14" t="s">
         <v>725</v>
       </c>
-      <c t="s" s="17" r="J63">
+      <c r="J63" s="14" t="s">
         <v>726</v>
       </c>
-      <c t="s" s="17" r="K63">
+      <c r="K63" s="14" t="s">
         <v>727</v>
       </c>
-      <c t="s" s="19" r="L63">
+      <c r="L63" s="16" t="s">
         <v>728</v>
       </c>
-      <c s="16" r="M63"/>
-      <c s="16" r="N63"/>
-      <c s="16" r="O63"/>
-      <c s="16" r="P63"/>
-    </row>
-    <row customHeight="1" r="64" ht="12.75">
-      <c t="s" s="17" r="A64">
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A64" s="14" t="s">
         <v>729</v>
       </c>
-      <c t="s" s="17" r="B64">
+      <c r="B64" s="14" t="s">
         <v>730</v>
       </c>
-      <c t="s" s="17" r="C64">
+      <c r="C64" s="14" t="s">
         <v>731</v>
       </c>
-      <c t="s" s="17" r="D64">
+      <c r="D64" s="14" t="s">
         <v>732</v>
       </c>
-      <c t="s" s="17" r="E64">
+      <c r="E64" s="14" t="s">
         <v>733</v>
       </c>
-      <c s="17" r="F64">
-        <v>931030.0</v>
-      </c>
-      <c t="s" s="17" r="G64">
+      <c r="F64" s="14">
+        <v>931030</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>734</v>
       </c>
-      <c t="s" s="17" r="H64">
+      <c r="H64" s="14" t="s">
         <v>735</v>
       </c>
-      <c t="s" s="17" r="I64">
+      <c r="I64" s="14" t="s">
         <v>736</v>
       </c>
-      <c t="s" s="17" r="J64">
+      <c r="J64" s="14" t="s">
         <v>737</v>
       </c>
-      <c t="s" s="17" r="K64">
+      <c r="K64" s="14" t="s">
         <v>738</v>
       </c>
-      <c t="s" s="19" r="L64">
+      <c r="L64" s="16" t="s">
         <v>739</v>
       </c>
-      <c s="16" r="M64"/>
-      <c s="16" r="N64"/>
-      <c s="16" r="O64"/>
-      <c s="16" r="P64"/>
-    </row>
-    <row customHeight="1" r="65" ht="12.75">
-      <c t="s" s="17" r="A65">
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>740</v>
       </c>
-      <c t="s" s="17" r="B65">
+      <c r="B65" s="14" t="s">
         <v>741</v>
       </c>
-      <c t="s" s="17" r="C65">
+      <c r="C65" s="14" t="s">
         <v>742</v>
       </c>
-      <c t="s" s="17" r="D65">
+      <c r="D65" s="14" t="s">
         <v>743</v>
       </c>
-      <c t="s" s="17" r="E65">
+      <c r="E65" s="14" t="s">
         <v>744</v>
       </c>
-      <c s="17" r="F65">
-        <v>950103.0</v>
-      </c>
-      <c t="s" s="17" r="G65">
+      <c r="F65" s="14">
+        <v>950103</v>
+      </c>
+      <c r="G65" s="14" t="s">
         <v>745</v>
       </c>
-      <c t="s" s="17" r="H65">
+      <c r="H65" s="14" t="s">
         <v>746</v>
       </c>
-      <c t="s" s="17" r="I65">
+      <c r="I65" s="14" t="s">
         <v>747</v>
       </c>
-      <c t="s" s="17" r="J65">
+      <c r="J65" s="14" t="s">
         <v>748</v>
       </c>
-      <c t="s" s="17" r="K65">
+      <c r="K65" s="14" t="s">
         <v>749</v>
       </c>
-      <c t="s" s="19" r="L65">
+      <c r="L65" s="16" t="s">
         <v>750</v>
       </c>
-      <c s="16" r="M65"/>
-      <c s="16" r="N65"/>
-      <c s="16" r="O65"/>
-      <c s="16" r="P65"/>
-    </row>
-    <row customHeight="1" r="66" ht="12.75">
-      <c t="s" s="17" r="A66">
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A66" s="14" t="s">
         <v>751</v>
       </c>
-      <c t="s" s="17" r="B66">
+      <c r="B66" s="14" t="s">
         <v>752</v>
       </c>
-      <c t="s" s="17" r="C66">
+      <c r="C66" s="14" t="s">
         <v>753</v>
       </c>
-      <c t="s" s="17" r="D66">
+      <c r="D66" s="14" t="s">
         <v>754</v>
       </c>
-      <c t="s" s="17" r="E66">
+      <c r="E66" s="14" t="s">
         <v>755</v>
       </c>
-      <c s="17" r="F66">
-        <v>940112.0</v>
-      </c>
-      <c t="s" s="17" r="G66">
+      <c r="F66" s="14">
+        <v>940112</v>
+      </c>
+      <c r="G66" s="14" t="s">
         <v>756</v>
       </c>
-      <c t="s" s="17" r="H66">
+      <c r="H66" s="14" t="s">
         <v>757</v>
       </c>
-      <c t="s" s="17" r="I66">
+      <c r="I66" s="14" t="s">
         <v>758</v>
       </c>
-      <c t="s" s="17" r="J66">
+      <c r="J66" s="14" t="s">
         <v>759</v>
       </c>
-      <c t="s" s="17" r="K66">
+      <c r="K66" s="14" t="s">
         <v>760</v>
       </c>
-      <c t="s" s="19" r="L66">
+      <c r="L66" s="16" t="s">
         <v>761</v>
       </c>
-      <c s="16" r="M66"/>
-      <c s="16" r="N66"/>
-      <c s="16" r="O66"/>
-      <c s="16" r="P66"/>
-    </row>
-    <row customHeight="1" r="67" ht="12.75">
-      <c t="s" s="17" r="A67">
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>762</v>
       </c>
-      <c t="s" s="17" r="B67">
+      <c r="B67" s="14" t="s">
         <v>763</v>
       </c>
-      <c t="s" s="17" r="C67">
+      <c r="C67" s="14" t="s">
         <v>764</v>
       </c>
-      <c t="s" s="17" r="D67">
+      <c r="D67" s="14" t="s">
         <v>765</v>
       </c>
-      <c t="s" s="17" r="E67">
+      <c r="E67" s="14" t="s">
         <v>766</v>
       </c>
-      <c s="17" r="F67">
-        <v>951110.0</v>
-      </c>
-      <c t="s" s="17" r="G67">
+      <c r="F67" s="14">
+        <v>951110</v>
+      </c>
+      <c r="G67" s="14" t="s">
         <v>767</v>
       </c>
-      <c t="s" s="17" r="H67">
+      <c r="H67" s="14" t="s">
         <v>768</v>
       </c>
-      <c t="s" s="17" r="I67">
+      <c r="I67" s="14" t="s">
         <v>769</v>
       </c>
-      <c t="s" s="17" r="J67">
+      <c r="J67" s="14" t="s">
         <v>770</v>
       </c>
-      <c t="s" s="17" r="K67">
+      <c r="K67" s="14" t="s">
         <v>771</v>
       </c>
-      <c t="s" s="19" r="L67">
+      <c r="L67" s="16" t="s">
         <v>772</v>
       </c>
-      <c s="16" r="M67"/>
-      <c s="16" r="N67"/>
-      <c s="16" r="O67"/>
-      <c s="16" r="P67"/>
-    </row>
-    <row customHeight="1" r="68" ht="12.75">
-      <c t="s" s="17" r="A68">
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A68" s="14" t="s">
         <v>773</v>
       </c>
-      <c t="s" s="17" r="B68">
+      <c r="B68" s="14" t="s">
         <v>774</v>
       </c>
-      <c t="s" s="17" r="C68">
+      <c r="C68" s="14" t="s">
         <v>775</v>
       </c>
-      <c t="s" s="17" r="D68">
+      <c r="D68" s="14" t="s">
         <v>776</v>
       </c>
-      <c t="s" s="17" r="E68">
+      <c r="E68" s="14" t="s">
         <v>777</v>
       </c>
-      <c s="17" r="F68">
-        <v>940506.0</v>
-      </c>
-      <c t="s" s="17" r="G68">
+      <c r="F68" s="14">
+        <v>940506</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>778</v>
       </c>
-      <c t="s" s="17" r="H68">
+      <c r="H68" s="14" t="s">
         <v>779</v>
       </c>
-      <c t="s" s="17" r="I68">
+      <c r="I68" s="14" t="s">
         <v>780</v>
       </c>
-      <c t="s" s="17" r="J68">
+      <c r="J68" s="14" t="s">
         <v>781</v>
       </c>
-      <c t="s" s="17" r="K68">
+      <c r="K68" s="14" t="s">
         <v>782</v>
       </c>
-      <c t="s" s="19" r="L68">
+      <c r="L68" s="16" t="s">
         <v>783</v>
       </c>
-      <c s="16" r="M68"/>
-      <c s="16" r="N68"/>
-      <c s="16" r="O68"/>
-      <c s="16" r="P68"/>
-    </row>
-    <row customHeight="1" r="69" ht="12.75">
-      <c t="s" s="17" r="A69">
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+    </row>
+    <row r="69" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A69" s="14" t="s">
         <v>784</v>
       </c>
-      <c t="s" s="17" r="B69">
+      <c r="B69" s="14" t="s">
         <v>785</v>
       </c>
-      <c t="s" s="17" r="C69">
+      <c r="C69" s="14" t="s">
         <v>786</v>
       </c>
-      <c t="s" s="17" r="D69">
+      <c r="D69" s="14" t="s">
         <v>787</v>
       </c>
-      <c t="s" s="17" r="E69">
+      <c r="E69" s="14" t="s">
         <v>788</v>
       </c>
-      <c s="17" r="F69">
-        <v>950324.0</v>
-      </c>
-      <c t="s" s="17" r="G69">
+      <c r="F69" s="14">
+        <v>950324</v>
+      </c>
+      <c r="G69" s="14" t="s">
         <v>789</v>
       </c>
-      <c t="s" s="17" r="H69">
+      <c r="H69" s="14" t="s">
         <v>790</v>
       </c>
-      <c t="s" s="17" r="I69">
+      <c r="I69" s="14" t="s">
         <v>791</v>
       </c>
-      <c t="s" s="17" r="J69">
+      <c r="J69" s="14" t="s">
         <v>792</v>
       </c>
-      <c t="s" s="17" r="K69">
+      <c r="K69" s="14" t="s">
         <v>793</v>
       </c>
-      <c t="s" s="19" r="L69">
+      <c r="L69" s="16" t="s">
         <v>794</v>
       </c>
-      <c s="16" r="M69"/>
-      <c s="16" r="N69"/>
-      <c s="16" r="O69"/>
-      <c s="16" r="P69"/>
-    </row>
-    <row customHeight="1" r="70" ht="12.75">
-      <c t="s" s="17" r="A70">
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+    </row>
+    <row r="70" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A70" s="14" t="s">
         <v>795</v>
       </c>
-      <c t="s" s="17" r="B70">
+      <c r="B70" s="14" t="s">
         <v>796</v>
       </c>
-      <c t="s" s="17" r="C70">
+      <c r="C70" s="14" t="s">
         <v>797</v>
       </c>
-      <c t="s" s="17" r="D70">
+      <c r="D70" s="14" t="s">
         <v>798</v>
       </c>
-      <c t="s" s="17" r="E70">
+      <c r="E70" s="14" t="s">
         <v>799</v>
       </c>
-      <c s="17" r="F70">
-        <v>951008.0</v>
-      </c>
-      <c t="s" s="17" r="G70">
+      <c r="F70" s="14">
+        <v>951008</v>
+      </c>
+      <c r="G70" s="14" t="s">
         <v>800</v>
       </c>
-      <c t="s" s="17" r="H70">
+      <c r="H70" s="14" t="s">
         <v>801</v>
       </c>
-      <c t="s" s="17" r="I70">
+      <c r="I70" s="14" t="s">
         <v>802</v>
       </c>
-      <c t="s" s="17" r="J70">
+      <c r="J70" s="14" t="s">
         <v>803</v>
       </c>
-      <c t="s" s="17" r="K70">
+      <c r="K70" s="14" t="s">
         <v>804</v>
       </c>
-      <c t="s" s="19" r="L70">
+      <c r="L70" s="16" t="s">
         <v>805</v>
       </c>
-      <c s="16" r="M70"/>
-      <c s="16" r="N70"/>
-      <c s="16" r="O70"/>
-      <c s="16" r="P70"/>
-    </row>
-    <row customHeight="1" r="71" ht="12.75">
-      <c t="s" s="17" r="A71">
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+    </row>
+    <row r="71" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>806</v>
       </c>
-      <c t="s" s="17" r="B71">
+      <c r="B71" s="14" t="s">
         <v>807</v>
       </c>
-      <c t="s" s="17" r="C71">
+      <c r="C71" s="14" t="s">
         <v>808</v>
       </c>
-      <c t="s" s="17" r="D71">
+      <c r="D71" s="14" t="s">
         <v>809</v>
       </c>
-      <c t="s" s="17" r="E71">
+      <c r="E71" s="14" t="s">
         <v>810</v>
       </c>
-      <c s="17" r="F71">
-        <v>921222.0</v>
-      </c>
-      <c t="s" s="17" r="G71">
+      <c r="F71" s="14">
+        <v>921222</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>811</v>
       </c>
-      <c t="s" s="17" r="H71">
+      <c r="H71" s="14" t="s">
         <v>812</v>
       </c>
-      <c t="s" s="17" r="I71">
+      <c r="I71" s="14" t="s">
         <v>813</v>
       </c>
-      <c t="s" s="17" r="J71">
+      <c r="J71" s="14" t="s">
         <v>814</v>
       </c>
-      <c t="s" s="17" r="K71">
+      <c r="K71" s="14" t="s">
         <v>815</v>
       </c>
-      <c t="s" s="19" r="L71">
+      <c r="L71" s="16" t="s">
         <v>816</v>
       </c>
-      <c s="16" r="M71"/>
-      <c s="16" r="N71"/>
-      <c s="16" r="O71"/>
-      <c s="16" r="P71"/>
-    </row>
-    <row customHeight="1" r="72" ht="12.75">
-      <c t="s" s="17" r="A72">
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+    </row>
+    <row r="72" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A72" s="14" t="s">
         <v>817</v>
       </c>
-      <c t="s" s="17" r="B72">
+      <c r="B72" s="14" t="s">
         <v>818</v>
       </c>
-      <c t="s" s="17" r="C72">
+      <c r="C72" s="14" t="s">
         <v>819</v>
       </c>
-      <c t="s" s="17" r="D72">
+      <c r="D72" s="14" t="s">
         <v>820</v>
       </c>
-      <c t="s" s="17" r="E72">
+      <c r="E72" s="14" t="s">
         <v>821</v>
       </c>
-      <c s="17" r="F72">
-        <v>960410.0</v>
-      </c>
-      <c t="s" s="17" r="G72">
+      <c r="F72" s="14">
+        <v>960410</v>
+      </c>
+      <c r="G72" s="14" t="s">
         <v>822</v>
       </c>
-      <c t="s" s="17" r="H72">
+      <c r="H72" s="14" t="s">
         <v>823</v>
       </c>
-      <c t="s" s="17" r="I72">
+      <c r="I72" s="14" t="s">
         <v>824</v>
       </c>
-      <c t="s" s="17" r="J72">
+      <c r="J72" s="14" t="s">
         <v>825</v>
       </c>
-      <c t="s" s="17" r="K72">
+      <c r="K72" s="14" t="s">
         <v>826</v>
       </c>
-      <c t="s" s="19" r="L72">
+      <c r="L72" s="16" t="s">
         <v>827</v>
       </c>
-      <c s="16" r="M72"/>
-      <c s="16" r="N72"/>
-      <c s="16" r="O72"/>
-      <c s="16" r="P72"/>
-    </row>
-    <row customHeight="1" r="73" ht="12.75">
-      <c t="s" s="17" r="A73">
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+    </row>
+    <row r="73" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>828</v>
       </c>
-      <c t="s" s="17" r="B73">
+      <c r="B73" s="14" t="s">
         <v>829</v>
       </c>
-      <c t="s" s="17" r="C73">
+      <c r="C73" s="14" t="s">
         <v>830</v>
       </c>
-      <c t="s" s="17" r="D73">
+      <c r="D73" s="14" t="s">
         <v>831</v>
       </c>
-      <c t="s" s="17" r="E73">
+      <c r="E73" s="14" t="s">
         <v>832</v>
       </c>
-      <c s="17" r="F73">
-        <v>930503.0</v>
-      </c>
-      <c t="s" s="17" r="G73">
+      <c r="F73" s="14">
+        <v>930503</v>
+      </c>
+      <c r="G73" s="14" t="s">
         <v>833</v>
       </c>
-      <c t="s" s="17" r="H73">
+      <c r="H73" s="14" t="s">
         <v>834</v>
       </c>
-      <c t="s" s="17" r="I73">
+      <c r="I73" s="14" t="s">
         <v>835</v>
       </c>
-      <c t="s" s="17" r="J73">
+      <c r="J73" s="14" t="s">
         <v>836</v>
       </c>
-      <c t="s" s="17" r="K73">
+      <c r="K73" s="14" t="s">
         <v>837</v>
       </c>
-      <c t="s" s="19" r="L73">
+      <c r="L73" s="16" t="s">
         <v>838</v>
       </c>
-      <c s="16" r="M73"/>
-      <c s="16" r="N73"/>
-      <c s="16" r="O73"/>
-      <c s="16" r="P73"/>
-    </row>
-    <row customHeight="1" r="74" ht="12.75">
-      <c t="s" s="17" r="A74">
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+    </row>
+    <row r="74" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A74" s="14" t="s">
         <v>839</v>
       </c>
-      <c t="s" s="17" r="B74">
+      <c r="B74" s="14" t="s">
         <v>840</v>
       </c>
-      <c t="s" s="17" r="C74">
+      <c r="C74" s="14" t="s">
         <v>841</v>
       </c>
-      <c t="s" s="17" r="D74">
+      <c r="D74" s="14" t="s">
         <v>842</v>
       </c>
-      <c t="s" s="17" r="E74">
+      <c r="E74" s="14" t="s">
         <v>843</v>
       </c>
-      <c s="17" r="F74">
-        <v>950407.0</v>
-      </c>
-      <c t="s" s="17" r="G74">
+      <c r="F74" s="14">
+        <v>950407</v>
+      </c>
+      <c r="G74" s="14" t="s">
         <v>844</v>
       </c>
-      <c t="s" s="17" r="H74">
+      <c r="H74" s="14" t="s">
         <v>845</v>
       </c>
-      <c t="s" s="17" r="I74">
+      <c r="I74" s="14" t="s">
         <v>846</v>
       </c>
-      <c t="s" s="17" r="J74">
+      <c r="J74" s="14" t="s">
         <v>847</v>
       </c>
-      <c t="s" s="17" r="K74">
+      <c r="K74" s="14" t="s">
         <v>848</v>
       </c>
-      <c t="s" s="19" r="L74">
+      <c r="L74" s="16" t="s">
         <v>849</v>
       </c>
-      <c s="16" r="M74"/>
-      <c s="16" r="N74"/>
-      <c s="16" r="O74"/>
-      <c s="16" r="P74"/>
-    </row>
-    <row customHeight="1" r="75" ht="12.75">
-      <c t="s" s="17" r="A75">
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+    </row>
+    <row r="75" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>850</v>
       </c>
-      <c t="s" s="17" r="B75">
+      <c r="B75" s="14" t="s">
         <v>851</v>
       </c>
-      <c t="s" s="17" r="C75">
+      <c r="C75" s="14" t="s">
         <v>852</v>
       </c>
-      <c t="s" s="17" r="D75">
+      <c r="D75" s="14" t="s">
         <v>853</v>
       </c>
-      <c t="s" s="17" r="E75">
+      <c r="E75" s="14" t="s">
         <v>854</v>
       </c>
-      <c s="17" r="F75">
-        <v>950429.0</v>
-      </c>
-      <c t="s" s="17" r="G75">
+      <c r="F75" s="14">
+        <v>950429</v>
+      </c>
+      <c r="G75" s="14" t="s">
         <v>855</v>
       </c>
-      <c t="s" s="17" r="H75">
+      <c r="H75" s="14" t="s">
         <v>856</v>
       </c>
-      <c t="s" s="17" r="I75">
+      <c r="I75" s="14" t="s">
         <v>857</v>
       </c>
-      <c t="s" s="17" r="J75">
+      <c r="J75" s="14" t="s">
         <v>858</v>
       </c>
-      <c t="s" s="17" r="K75">
+      <c r="K75" s="14" t="s">
         <v>859</v>
       </c>
-      <c t="s" s="19" r="L75">
+      <c r="L75" s="16" t="s">
         <v>860</v>
       </c>
-      <c s="16" r="M75"/>
-      <c s="16" r="N75"/>
-      <c s="16" r="O75"/>
-      <c s="16" r="P75"/>
-    </row>
-    <row customHeight="1" r="76" ht="12.75">
-      <c t="s" s="17" r="A76">
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+    </row>
+    <row r="76" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A76" s="14" t="s">
         <v>861</v>
       </c>
-      <c t="s" s="17" r="B76">
+      <c r="B76" s="14" t="s">
         <v>862</v>
       </c>
-      <c t="s" s="17" r="C76">
+      <c r="C76" s="14" t="s">
         <v>863</v>
       </c>
-      <c t="s" s="17" r="D76">
+      <c r="D76" s="14" t="s">
         <v>864</v>
       </c>
-      <c t="s" s="17" r="E76">
+      <c r="E76" s="14" t="s">
         <v>865</v>
       </c>
-      <c s="17" r="F76">
-        <v>950319.0</v>
-      </c>
-      <c t="s" s="17" r="G76">
+      <c r="F76" s="14">
+        <v>950319</v>
+      </c>
+      <c r="G76" s="14" t="s">
         <v>866</v>
       </c>
-      <c t="s" s="17" r="H76">
+      <c r="H76" s="14" t="s">
         <v>867</v>
       </c>
-      <c t="s" s="17" r="I76">
+      <c r="I76" s="14" t="s">
         <v>868</v>
       </c>
-      <c t="s" s="17" r="J76">
+      <c r="J76" s="14" t="s">
         <v>869</v>
       </c>
-      <c t="s" s="17" r="K76">
+      <c r="K76" s="14" t="s">
         <v>870</v>
       </c>
-      <c t="s" s="19" r="L76">
+      <c r="L76" s="16" t="s">
         <v>871</v>
       </c>
-      <c s="16" r="M76"/>
-      <c s="16" r="N76"/>
-      <c s="16" r="O76"/>
-      <c s="16" r="P76"/>
-    </row>
-    <row customHeight="1" r="77" ht="12.75">
-      <c t="s" s="17" r="A77">
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+    </row>
+    <row r="77" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A77" s="14" t="s">
         <v>872</v>
       </c>
-      <c t="s" s="17" r="B77">
+      <c r="B77" s="14" t="s">
         <v>873</v>
       </c>
-      <c t="s" s="17" r="C77">
+      <c r="C77" s="14" t="s">
         <v>874</v>
       </c>
-      <c t="s" s="17" r="D77">
+      <c r="D77" s="14" t="s">
         <v>875</v>
       </c>
-      <c t="s" s="17" r="E77">
+      <c r="E77" s="14" t="s">
         <v>876</v>
       </c>
-      <c s="17" r="F77">
-        <v>940106.0</v>
-      </c>
-      <c t="s" s="17" r="G77">
+      <c r="F77" s="14">
+        <v>940106</v>
+      </c>
+      <c r="G77" s="14" t="s">
         <v>877</v>
       </c>
-      <c t="s" s="17" r="H77">
+      <c r="H77" s="14" t="s">
         <v>878</v>
       </c>
-      <c t="s" s="17" r="I77">
+      <c r="I77" s="14" t="s">
         <v>879</v>
       </c>
-      <c t="s" s="17" r="J77">
+      <c r="J77" s="14" t="s">
         <v>880</v>
       </c>
-      <c t="s" s="17" r="K77">
+      <c r="K77" s="14" t="s">
         <v>881</v>
       </c>
-      <c t="s" s="19" r="L77">
+      <c r="L77" s="16" t="s">
         <v>882</v>
       </c>
-      <c s="16" r="M77"/>
-      <c s="16" r="N77"/>
-      <c s="16" r="O77"/>
-      <c s="16" r="P77"/>
-    </row>
-    <row customHeight="1" r="78" ht="12.75">
-      <c t="s" s="17" r="A78">
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+    </row>
+    <row r="78" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>883</v>
       </c>
-      <c t="s" s="17" r="B78">
+      <c r="B78" s="14" t="s">
         <v>884</v>
       </c>
-      <c t="s" s="17" r="C78">
+      <c r="C78" s="14" t="s">
         <v>885</v>
       </c>
-      <c t="s" s="17" r="D78">
+      <c r="D78" s="14" t="s">
         <v>886</v>
       </c>
-      <c t="s" s="17" r="E78">
+      <c r="E78" s="14" t="s">
         <v>887</v>
       </c>
-      <c s="17" r="F78">
-        <v>920527.0</v>
-      </c>
-      <c t="s" s="17" r="G78">
+      <c r="F78" s="14">
+        <v>920527</v>
+      </c>
+      <c r="G78" s="14" t="s">
         <v>888</v>
       </c>
-      <c t="s" s="17" r="H78">
+      <c r="H78" s="14" t="s">
         <v>889</v>
       </c>
-      <c t="s" s="17" r="I78">
+      <c r="I78" s="14" t="s">
         <v>890</v>
       </c>
-      <c t="s" s="17" r="J78">
+      <c r="J78" s="14" t="s">
         <v>891</v>
       </c>
-      <c t="s" s="17" r="K78">
+      <c r="K78" s="14" t="s">
         <v>892</v>
       </c>
-      <c t="s" s="19" r="L78">
+      <c r="L78" s="16" t="s">
         <v>893</v>
       </c>
-      <c s="16" r="M78"/>
-      <c s="16" r="N78"/>
-      <c s="16" r="O78"/>
-      <c s="16" r="P78"/>
-    </row>
-    <row customHeight="1" r="79" ht="12.75">
-      <c t="s" s="17" r="A79">
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+    </row>
+    <row r="79" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>894</v>
       </c>
-      <c t="s" s="17" r="B79">
+      <c r="B79" s="14" t="s">
         <v>895</v>
       </c>
-      <c t="s" s="17" r="C79">
+      <c r="C79" s="14" t="s">
         <v>896</v>
       </c>
-      <c t="s" s="17" r="D79">
+      <c r="D79" s="14" t="s">
         <v>897</v>
       </c>
-      <c t="s" s="17" r="E79">
+      <c r="E79" s="14" t="s">
         <v>898</v>
       </c>
-      <c s="17" r="F79">
-        <v>950122.0</v>
-      </c>
-      <c t="s" s="17" r="G79">
+      <c r="F79" s="14">
+        <v>950122</v>
+      </c>
+      <c r="G79" s="14" t="s">
         <v>899</v>
       </c>
-      <c t="s" s="17" r="H79">
+      <c r="H79" s="14" t="s">
         <v>900</v>
       </c>
-      <c t="s" s="17" r="I79">
+      <c r="I79" s="14" t="s">
         <v>901</v>
       </c>
-      <c t="s" s="17" r="J79">
+      <c r="J79" s="14" t="s">
         <v>902</v>
       </c>
-      <c t="s" s="17" r="K79">
+      <c r="K79" s="14" t="s">
         <v>903</v>
       </c>
-      <c t="s" s="19" r="L79">
+      <c r="L79" s="16" t="s">
         <v>904</v>
       </c>
-      <c s="16" r="M79"/>
-      <c s="16" r="N79"/>
-      <c s="16" r="O79"/>
-      <c s="16" r="P79"/>
-    </row>
-    <row customHeight="1" r="80" ht="12.75">
-      <c t="s" s="17" r="A80">
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+    </row>
+    <row r="80" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A80" s="14" t="s">
         <v>905</v>
       </c>
-      <c t="s" s="17" r="B80">
+      <c r="B80" s="14" t="s">
         <v>906</v>
       </c>
-      <c t="s" s="17" r="C80">
+      <c r="C80" s="14" t="s">
         <v>907</v>
       </c>
-      <c t="s" s="17" r="D80">
+      <c r="D80" s="14" t="s">
         <v>908</v>
       </c>
-      <c t="s" s="17" r="E80">
+      <c r="E80" s="14" t="s">
         <v>909</v>
       </c>
-      <c s="17" r="F80">
-        <v>950306.0</v>
-      </c>
-      <c t="s" s="17" r="G80">
+      <c r="F80" s="14">
+        <v>950306</v>
+      </c>
+      <c r="G80" s="14" t="s">
         <v>910</v>
       </c>
-      <c t="s" s="17" r="H80">
+      <c r="H80" s="14" t="s">
         <v>911</v>
       </c>
-      <c t="s" s="17" r="I80">
+      <c r="I80" s="14" t="s">
         <v>912</v>
       </c>
-      <c t="s" s="17" r="J80">
+      <c r="J80" s="14" t="s">
         <v>913</v>
       </c>
-      <c t="s" s="17" r="K80">
+      <c r="K80" s="14" t="s">
         <v>914</v>
       </c>
-      <c t="s" s="19" r="L80">
+      <c r="L80" s="16" t="s">
         <v>915</v>
       </c>
-      <c s="16" r="M80"/>
-      <c s="16" r="N80"/>
-      <c s="16" r="O80"/>
-      <c s="16" r="P80"/>
-    </row>
-    <row customHeight="1" r="81" ht="12.75">
-      <c t="s" s="17" r="A81">
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+    </row>
+    <row r="81" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>916</v>
       </c>
-      <c t="s" s="17" r="B81">
+      <c r="B81" s="14" t="s">
         <v>917</v>
       </c>
-      <c t="s" s="17" r="C81">
+      <c r="C81" s="14" t="s">
         <v>918</v>
       </c>
-      <c t="s" s="17" r="D81">
+      <c r="D81" s="14" t="s">
         <v>919</v>
       </c>
-      <c t="s" s="17" r="E81">
+      <c r="E81" s="14" t="s">
         <v>920</v>
       </c>
-      <c s="17" r="F81">
-        <v>930604.0</v>
-      </c>
-      <c t="s" s="17" r="G81">
+      <c r="F81" s="14">
+        <v>930604</v>
+      </c>
+      <c r="G81" s="14" t="s">
         <v>921</v>
       </c>
-      <c t="s" s="17" r="H81">
+      <c r="H81" s="14" t="s">
         <v>922</v>
       </c>
-      <c t="s" s="17" r="I81">
+      <c r="I81" s="14" t="s">
         <v>923</v>
       </c>
-      <c t="s" s="17" r="J81">
+      <c r="J81" s="14" t="s">
         <v>924</v>
       </c>
-      <c t="s" s="17" r="K81">
+      <c r="K81" s="14" t="s">
         <v>925</v>
       </c>
-      <c t="s" s="19" r="L81">
+      <c r="L81" s="16" t="s">
         <v>926</v>
       </c>
-      <c s="16" r="M81"/>
-      <c s="16" r="N81"/>
-      <c s="16" r="O81"/>
-      <c s="16" r="P81"/>
-    </row>
-    <row customHeight="1" r="82" ht="12.75">
-      <c t="s" s="17" r="A82">
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+    </row>
+    <row r="82" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>927</v>
       </c>
-      <c t="s" s="17" r="B82">
+      <c r="B82" s="14" t="s">
         <v>928</v>
       </c>
-      <c t="s" s="17" r="C82">
+      <c r="C82" s="14" t="s">
         <v>929</v>
       </c>
-      <c t="s" s="17" r="D82">
+      <c r="D82" s="14" t="s">
         <v>930</v>
       </c>
-      <c t="s" s="17" r="E82">
+      <c r="E82" s="14" t="s">
         <v>931</v>
       </c>
-      <c s="17" r="F82">
-        <v>950408.0</v>
-      </c>
-      <c t="s" s="17" r="G82">
+      <c r="F82" s="14">
+        <v>950408</v>
+      </c>
+      <c r="G82" s="14" t="s">
         <v>932</v>
       </c>
-      <c t="s" s="17" r="H82">
+      <c r="H82" s="14" t="s">
         <v>933</v>
       </c>
-      <c t="s" s="17" r="I82">
+      <c r="I82" s="14" t="s">
         <v>934</v>
       </c>
-      <c t="s" s="17" r="J82">
+      <c r="J82" s="14" t="s">
         <v>935</v>
       </c>
-      <c t="s" s="17" r="K82">
+      <c r="K82" s="14" t="s">
         <v>936</v>
       </c>
-      <c t="s" s="19" r="L82">
+      <c r="L82" s="16" t="s">
         <v>937</v>
       </c>
-      <c s="16" r="M82"/>
-      <c s="16" r="N82"/>
-      <c s="16" r="O82"/>
-      <c s="16" r="P82"/>
-    </row>
-    <row customHeight="1" r="83" ht="12.75">
-      <c s="16" r="A83"/>
-      <c s="15" r="B83"/>
-      <c s="15" r="C83"/>
-      <c s="15" r="D83"/>
-      <c s="15" r="E83"/>
-      <c s="15" r="F83"/>
-      <c s="15" r="G83"/>
-      <c s="15" r="H83"/>
-      <c s="15" r="I83"/>
-      <c s="15" r="J83"/>
-      <c s="15" r="K83"/>
-      <c s="15" r="L83"/>
-      <c s="15" r="M83"/>
-      <c s="15" r="N83"/>
-      <c s="15" r="O83"/>
-      <c s="16" r="P83"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+    </row>
+    <row r="83" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A83" s="13"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>